--- a/op.xlsx
+++ b/op.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2866" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2863" uniqueCount="396">
   <si>
     <t xml:space="preserve">US</t>
   </si>
@@ -305,10 +305,7 @@
     <t xml:space="preserve">PROBOOK 650 G3</t>
   </si>
   <si>
-    <t xml:space="preserve">INTELCORE i7 - 7820 HQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CORE i7 - 7820 HQ</t>
+    <t xml:space="preserve">CORE i7 – 7820HQ</t>
   </si>
   <si>
     <t xml:space="preserve">SSDM2</t>
@@ -317,10 +314,7 @@
     <t xml:space="preserve"> Intel R HD Graphics 630</t>
   </si>
   <si>
-    <t xml:space="preserve">INTEL CORE i5 - 7300 U</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CORE i5 - 7300 U</t>
+    <t xml:space="preserve">CORE i5 - 7300U</t>
   </si>
   <si>
     <t xml:space="preserve">PROBOOK 650 G2</t>
@@ -512,12 +506,6 @@
     <t xml:space="preserve">Intel Core i7 - 8700 (6 Cores/12MB/12T/up to 4.6GHz/65W)</t>
   </si>
   <si>
-    <t xml:space="preserve">256+1TB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD+HDD</t>
-  </si>
-  <si>
     <t xml:space="preserve">NVIDIA GeForce GTX 1050 4G DDR5 + Intel UHD Graphics 630</t>
   </si>
   <si>
@@ -665,6 +653,9 @@
     <t xml:space="preserve"> Z2 4G Mini workstation PC</t>
   </si>
   <si>
+    <t xml:space="preserve">XEON INTEL-E 2124E</t>
+  </si>
+  <si>
     <t xml:space="preserve">XEON - INTEL-E 2124E</t>
   </si>
   <si>
@@ -681,9 +672,6 @@
   </si>
   <si>
     <t xml:space="preserve">2.6 (12M)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1TB</t>
   </si>
   <si>
     <t xml:space="preserve">GTX 1650 4G </t>
@@ -1295,6 +1283,9 @@
   </si>
   <si>
     <t xml:space="preserve">2.3(24M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1TB</t>
   </si>
   <si>
     <t xml:space="preserve">NVME</t>
@@ -2443,18 +2434,18 @@
   </sheetPr>
   <dimension ref="A1:X143"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="J113" activeCellId="0" sqref="J113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="17.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="17.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="21.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="29.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="29.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="27.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="20.45"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="8.89"/>
@@ -2462,7 +2453,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="12.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="11.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="12.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="25.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="25.66"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="8.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="9.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="10.33"/>
@@ -3917,10 +3908,10 @@
         <v>92</v>
       </c>
       <c r="E23" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" s="26" t="s">
         <v>93</v>
-      </c>
-      <c r="F23" s="26" t="s">
-        <v>94</v>
       </c>
       <c r="G23" s="26" t="n">
         <v>2.9</v>
@@ -3935,13 +3926,13 @@
         <v>256</v>
       </c>
       <c r="K23" s="26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L23" s="26" t="n">
         <v>15.6</v>
       </c>
       <c r="M23" s="26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N23" s="26" t="s">
         <v>32</v>
@@ -3979,10 +3970,10 @@
         <v>92</v>
       </c>
       <c r="E24" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" s="26" t="s">
         <v>93</v>
-      </c>
-      <c r="F24" s="26" t="s">
-        <v>94</v>
       </c>
       <c r="G24" s="26" t="n">
         <v>2.9</v>
@@ -3997,13 +3988,13 @@
         <v>256</v>
       </c>
       <c r="K24" s="26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L24" s="26" t="n">
         <v>15.6</v>
       </c>
       <c r="M24" s="26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N24" s="26" t="s">
         <v>32</v>
@@ -4041,10 +4032,10 @@
         <v>92</v>
       </c>
       <c r="E25" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="F25" s="26" t="s">
         <v>93</v>
-      </c>
-      <c r="F25" s="26" t="s">
-        <v>94</v>
       </c>
       <c r="G25" s="26" t="n">
         <v>2.9</v>
@@ -4059,13 +4050,13 @@
         <v>256</v>
       </c>
       <c r="K25" s="26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L25" s="26" t="n">
         <v>15.6</v>
       </c>
       <c r="M25" s="26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N25" s="26" t="s">
         <v>32</v>
@@ -4103,10 +4094,10 @@
         <v>92</v>
       </c>
       <c r="E26" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26" s="26" t="s">
         <v>93</v>
-      </c>
-      <c r="F26" s="26" t="s">
-        <v>94</v>
       </c>
       <c r="G26" s="26" t="n">
         <v>2.9</v>
@@ -4121,13 +4112,13 @@
         <v>256</v>
       </c>
       <c r="K26" s="26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L26" s="26" t="n">
         <v>15.6</v>
       </c>
       <c r="M26" s="26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N26" s="26" t="s">
         <v>32</v>
@@ -4165,10 +4156,10 @@
         <v>92</v>
       </c>
       <c r="E27" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27" s="26" t="s">
         <v>93</v>
-      </c>
-      <c r="F27" s="26" t="s">
-        <v>94</v>
       </c>
       <c r="G27" s="26" t="n">
         <v>2.9</v>
@@ -4183,13 +4174,13 @@
         <v>256</v>
       </c>
       <c r="K27" s="26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L27" s="26" t="n">
         <v>15.6</v>
       </c>
       <c r="M27" s="26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N27" s="26" t="s">
         <v>32</v>
@@ -4227,10 +4218,10 @@
         <v>92</v>
       </c>
       <c r="E28" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="F28" s="26" t="s">
         <v>93</v>
-      </c>
-      <c r="F28" s="26" t="s">
-        <v>94</v>
       </c>
       <c r="G28" s="26" t="n">
         <v>2.9</v>
@@ -4245,13 +4236,13 @@
         <v>256</v>
       </c>
       <c r="K28" s="26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L28" s="26" t="n">
         <v>15.6</v>
       </c>
       <c r="M28" s="26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N28" s="26" t="s">
         <v>32</v>
@@ -4289,10 +4280,10 @@
         <v>92</v>
       </c>
       <c r="E29" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="F29" s="26" t="s">
         <v>93</v>
-      </c>
-      <c r="F29" s="26" t="s">
-        <v>94</v>
       </c>
       <c r="G29" s="26" t="n">
         <v>2.9</v>
@@ -4307,13 +4298,13 @@
         <v>256</v>
       </c>
       <c r="K29" s="26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L29" s="26" t="n">
         <v>15.6</v>
       </c>
       <c r="M29" s="26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N29" s="26" t="s">
         <v>32</v>
@@ -4337,7 +4328,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="30" s="26" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" s="26" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="26" t="n">
         <v>261</v>
       </c>
@@ -4351,10 +4342,10 @@
         <v>92</v>
       </c>
       <c r="E30" s="28" t="s">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="F30" s="26" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G30" s="26" t="n">
         <v>2.6</v>
@@ -4369,13 +4360,13 @@
         <v>256</v>
       </c>
       <c r="K30" s="26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L30" s="26" t="n">
         <v>15.6</v>
       </c>
       <c r="M30" s="26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N30" s="26" t="s">
         <v>32</v>
@@ -4410,7 +4401,7 @@
         <v>41</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E31" s="32" t="s">
         <v>71</v>
@@ -4431,13 +4422,13 @@
         <v>256</v>
       </c>
       <c r="K31" s="30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L31" s="30" t="n">
         <v>15.6</v>
       </c>
       <c r="M31" s="30" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N31" s="30" t="s">
         <v>32</v>
@@ -4472,7 +4463,7 @@
         <v>41</v>
       </c>
       <c r="D32" s="30" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E32" s="32" t="s">
         <v>71</v>
@@ -4493,13 +4484,13 @@
         <v>256</v>
       </c>
       <c r="K32" s="30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L32" s="30" t="n">
         <v>15.6</v>
       </c>
       <c r="M32" s="30" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N32" s="30" t="s">
         <v>32</v>
@@ -4534,7 +4525,7 @@
         <v>41</v>
       </c>
       <c r="D33" s="30" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E33" s="32" t="s">
         <v>71</v>
@@ -4555,13 +4546,13 @@
         <v>256</v>
       </c>
       <c r="K33" s="30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L33" s="30" t="n">
         <v>15.6</v>
       </c>
       <c r="M33" s="30" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N33" s="30" t="s">
         <v>32</v>
@@ -4596,7 +4587,7 @@
         <v>41</v>
       </c>
       <c r="D34" s="30" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E34" s="32" t="s">
         <v>71</v>
@@ -4617,13 +4608,13 @@
         <v>256</v>
       </c>
       <c r="K34" s="30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L34" s="30" t="n">
         <v>14</v>
       </c>
       <c r="M34" s="30" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N34" s="30" t="s">
         <v>32</v>
@@ -4644,7 +4635,7 @@
         <v>34</v>
       </c>
       <c r="U34" s="33" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="V34" s="30" t="n">
         <v>5500</v>
@@ -4658,7 +4649,7 @@
         <v>41</v>
       </c>
       <c r="D35" s="30" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E35" s="32" t="s">
         <v>71</v>
@@ -4679,13 +4670,13 @@
         <v>256</v>
       </c>
       <c r="K35" s="30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L35" s="30" t="n">
         <v>14</v>
       </c>
       <c r="M35" s="30" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N35" s="30" t="s">
         <v>32</v>
@@ -4706,7 +4697,7 @@
         <v>34</v>
       </c>
       <c r="U35" s="30" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="V35" s="30" t="n">
         <v>5500</v>
@@ -4723,13 +4714,13 @@
         <v>49</v>
       </c>
       <c r="D36" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="E36" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="F36" s="34" t="s">
         <v>104</v>
-      </c>
-      <c r="E36" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="F36" s="34" t="s">
-        <v>106</v>
       </c>
       <c r="G36" s="34" t="n">
         <v>2.7</v>
@@ -4744,13 +4735,13 @@
         <v>512</v>
       </c>
       <c r="K36" s="34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L36" s="34" t="n">
         <v>15.6</v>
       </c>
       <c r="M36" s="34" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="N36" s="34" t="s">
         <v>31</v>
@@ -4771,7 +4762,7 @@
         <v>34</v>
       </c>
       <c r="U36" s="37" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="V36" s="34" t="n">
         <v>8500</v>
@@ -4788,13 +4779,13 @@
         <v>49</v>
       </c>
       <c r="D37" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="E37" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="F37" s="34" t="s">
         <v>104</v>
-      </c>
-      <c r="E37" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="F37" s="34" t="s">
-        <v>106</v>
       </c>
       <c r="G37" s="34" t="n">
         <v>2.7</v>
@@ -4809,13 +4800,13 @@
         <v>256</v>
       </c>
       <c r="K37" s="34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L37" s="34" t="n">
         <v>15.6</v>
       </c>
       <c r="M37" s="34" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="N37" s="34" t="s">
         <v>31</v>
@@ -4836,7 +4827,7 @@
         <v>34</v>
       </c>
       <c r="U37" s="37" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="V37" s="34" t="n">
         <v>8500</v>
@@ -4853,13 +4844,13 @@
         <v>49</v>
       </c>
       <c r="D38" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="E38" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="F38" s="34" t="s">
         <v>104</v>
-      </c>
-      <c r="E38" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="F38" s="34" t="s">
-        <v>106</v>
       </c>
       <c r="G38" s="34" t="n">
         <v>2.7</v>
@@ -4874,13 +4865,13 @@
         <v>256</v>
       </c>
       <c r="K38" s="34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L38" s="34" t="n">
         <v>15.6</v>
       </c>
       <c r="M38" s="34" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N38" s="34" t="s">
         <v>31</v>
@@ -4915,13 +4906,13 @@
         <v>49</v>
       </c>
       <c r="D39" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="E39" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="F39" s="34" t="s">
         <v>104</v>
-      </c>
-      <c r="E39" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="F39" s="34" t="s">
-        <v>106</v>
       </c>
       <c r="G39" s="34" t="n">
         <v>2.7</v>
@@ -4936,13 +4927,13 @@
         <v>256</v>
       </c>
       <c r="K39" s="34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L39" s="34" t="n">
         <v>15.6</v>
       </c>
       <c r="M39" s="34" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N39" s="34" t="s">
         <v>55</v>
@@ -4977,13 +4968,13 @@
         <v>49</v>
       </c>
       <c r="D40" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="E40" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="F40" s="34" t="s">
         <v>104</v>
-      </c>
-      <c r="E40" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="F40" s="34" t="s">
-        <v>106</v>
       </c>
       <c r="G40" s="34" t="n">
         <v>2.7</v>
@@ -4998,13 +4989,13 @@
         <v>256</v>
       </c>
       <c r="K40" s="34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L40" s="34" t="n">
         <v>15.6</v>
       </c>
       <c r="M40" s="34" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N40" s="34" t="s">
         <v>31</v>
@@ -5036,13 +5027,13 @@
         <v>49</v>
       </c>
       <c r="D41" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="E41" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="F41" s="38" t="s">
         <v>111</v>
-      </c>
-      <c r="E41" s="38" t="s">
-        <v>112</v>
-      </c>
-      <c r="F41" s="38" t="s">
-        <v>113</v>
       </c>
       <c r="G41" s="38" t="n">
         <v>1.7</v>
@@ -5057,13 +5048,13 @@
         <v>256</v>
       </c>
       <c r="K41" s="40" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L41" s="38" t="n">
         <v>14</v>
       </c>
       <c r="M41" s="38" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N41" s="40" t="s">
         <v>31</v>
@@ -5098,13 +5089,13 @@
         <v>41</v>
       </c>
       <c r="D42" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="E42" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="F42" s="41" t="s">
         <v>115</v>
-      </c>
-      <c r="E42" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="F42" s="41" t="s">
-        <v>117</v>
       </c>
       <c r="G42" s="41" t="n">
         <v>2.1</v>
@@ -5119,13 +5110,13 @@
         <v>256</v>
       </c>
       <c r="K42" s="41" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="L42" s="41" t="n">
         <v>14</v>
       </c>
       <c r="M42" s="41" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="N42" s="41" t="s">
         <v>32</v>
@@ -5164,13 +5155,13 @@
         <v>69</v>
       </c>
       <c r="D43" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="F43" s="13" t="s">
         <v>120</v>
-      </c>
-      <c r="E43" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="F43" s="13" t="s">
-        <v>122</v>
       </c>
       <c r="G43" s="13"/>
       <c r="H43" s="13" t="n">
@@ -5187,7 +5178,7 @@
       </c>
       <c r="L43" s="13"/>
       <c r="M43" s="13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N43" s="13"/>
       <c r="O43" s="13"/>
@@ -5211,14 +5202,14 @@
         <v>23</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D44" s="13"/>
       <c r="E44" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G44" s="13"/>
       <c r="H44" s="13" t="n">
@@ -5235,7 +5226,7 @@
       </c>
       <c r="L44" s="13"/>
       <c r="M44" s="13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N44" s="13"/>
       <c r="O44" s="13"/>
@@ -5264,7 +5255,7 @@
         <v>49</v>
       </c>
       <c r="D45" s="45" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E45" s="45" t="s">
         <v>71</v>
@@ -5288,7 +5279,7 @@
         <v>14</v>
       </c>
       <c r="M45" s="45" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N45" s="45" t="s">
         <v>32</v>
@@ -5311,13 +5302,13 @@
         <v>49</v>
       </c>
       <c r="D46" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="E46" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="F46" s="45" t="s">
         <v>126</v>
-      </c>
-      <c r="E46" s="45" t="s">
-        <v>127</v>
-      </c>
-      <c r="F46" s="45" t="s">
-        <v>128</v>
       </c>
       <c r="H46" s="45" t="n">
         <v>8</v>
@@ -5335,7 +5326,7 @@
         <v>14</v>
       </c>
       <c r="M46" s="45" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N46" s="45" t="s">
         <v>31</v>
@@ -5358,13 +5349,13 @@
         <v>49</v>
       </c>
       <c r="D47" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="E47" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="F47" s="45" t="s">
         <v>126</v>
-      </c>
-      <c r="E47" s="45" t="s">
-        <v>127</v>
-      </c>
-      <c r="F47" s="45" t="s">
-        <v>128</v>
       </c>
       <c r="H47" s="45" t="n">
         <v>8</v>
@@ -5382,7 +5373,7 @@
         <v>14</v>
       </c>
       <c r="M47" s="45" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="R47" s="45" t="s">
         <v>33</v>
@@ -5402,7 +5393,7 @@
         <v>49</v>
       </c>
       <c r="D48" s="47" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E48" s="47" t="s">
         <v>71</v>
@@ -5423,7 +5414,7 @@
         <v>12</v>
       </c>
       <c r="M48" s="47" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N48" s="47" t="s">
         <v>31</v>
@@ -5441,7 +5432,7 @@
         <v>33</v>
       </c>
       <c r="U48" s="49" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="V48" s="47" t="n">
         <v>7000</v>
@@ -5458,13 +5449,13 @@
         <v>49</v>
       </c>
       <c r="D49" s="47" t="s">
+        <v>127</v>
+      </c>
+      <c r="E49" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="E49" s="47" t="s">
-        <v>131</v>
-      </c>
       <c r="F49" s="47" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H49" s="47" t="n">
         <v>8</v>
@@ -5482,7 +5473,7 @@
         <v>12</v>
       </c>
       <c r="M49" s="47" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N49" s="47" t="s">
         <v>32</v>
@@ -5500,7 +5491,7 @@
         <v>33</v>
       </c>
       <c r="U49" s="49" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="V49" s="47" t="n">
         <v>6500</v>
@@ -5517,13 +5508,13 @@
         <v>49</v>
       </c>
       <c r="D50" s="47" t="s">
+        <v>127</v>
+      </c>
+      <c r="E50" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="E50" s="47" t="s">
-        <v>131</v>
-      </c>
       <c r="F50" s="47" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H50" s="47" t="n">
         <v>8</v>
@@ -5541,7 +5532,7 @@
         <v>12</v>
       </c>
       <c r="M50" s="47" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N50" s="47" t="s">
         <v>32</v>
@@ -5559,7 +5550,7 @@
         <v>33</v>
       </c>
       <c r="U50" s="49" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="V50" s="47" t="n">
         <v>6500</v>
@@ -5576,13 +5567,13 @@
         <v>69</v>
       </c>
       <c r="D51" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="F51" s="13" t="s">
         <v>134</v>
-      </c>
-      <c r="E51" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="F51" s="13" t="s">
-        <v>136</v>
       </c>
       <c r="G51" s="13"/>
       <c r="H51" s="13" t="n">
@@ -5601,7 +5592,7 @@
         <v>14</v>
       </c>
       <c r="M51" s="13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N51" s="13" t="s">
         <v>32</v>
@@ -5635,16 +5626,16 @@
         <v>23</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D52" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="F52" s="13" t="s">
         <v>137</v>
-      </c>
-      <c r="E52" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="F52" s="13" t="s">
-        <v>139</v>
       </c>
       <c r="G52" s="13"/>
       <c r="H52" s="13" t="n">
@@ -5661,7 +5652,7 @@
       </c>
       <c r="L52" s="13"/>
       <c r="M52" s="13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N52" s="13"/>
       <c r="O52" s="13"/>
@@ -5687,16 +5678,16 @@
         <v>44962</v>
       </c>
       <c r="C53" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="E53" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="D53" s="13" t="s">
+      <c r="F53" s="13" t="s">
         <v>141</v>
-      </c>
-      <c r="E53" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="F53" s="13" t="s">
-        <v>143</v>
       </c>
       <c r="G53" s="13"/>
       <c r="H53" s="13" t="n">
@@ -5715,7 +5706,7 @@
         <v>24</v>
       </c>
       <c r="M53" s="13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N53" s="13"/>
       <c r="O53" s="13"/>
@@ -5741,16 +5732,16 @@
         <v>44962</v>
       </c>
       <c r="C54" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="E54" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="D54" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="E54" s="13" t="s">
-        <v>142</v>
-      </c>
       <c r="F54" s="13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G54" s="13"/>
       <c r="H54" s="13" t="n">
@@ -5769,7 +5760,7 @@
         <v>22</v>
       </c>
       <c r="M54" s="13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N54" s="13"/>
       <c r="O54" s="13"/>
@@ -5798,13 +5789,13 @@
         <v>24</v>
       </c>
       <c r="D55" s="50" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E55" s="50" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F55" s="50" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H55" s="50" t="n">
         <v>8</v>
@@ -5816,13 +5807,13 @@
         <v>256</v>
       </c>
       <c r="K55" s="50" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L55" s="50" t="n">
         <v>13.3</v>
       </c>
       <c r="M55" s="50" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N55" s="50" t="s">
         <v>31</v>
@@ -5857,13 +5848,13 @@
         <v>24</v>
       </c>
       <c r="D56" s="50" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E56" s="50" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F56" s="50" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H56" s="50" t="n">
         <v>8</v>
@@ -5875,13 +5866,13 @@
         <v>256</v>
       </c>
       <c r="K56" s="50" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L56" s="50" t="n">
         <v>13.3</v>
       </c>
       <c r="M56" s="50" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N56" s="50" t="s">
         <v>31</v>
@@ -5902,7 +5893,7 @@
         <v>34</v>
       </c>
       <c r="U56" s="52" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="V56" s="50" t="n">
         <v>7000</v>
@@ -5919,13 +5910,13 @@
         <v>69</v>
       </c>
       <c r="D57" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="F57" s="13" t="s">
         <v>147</v>
-      </c>
-      <c r="E57" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="F57" s="13" t="s">
-        <v>149</v>
       </c>
       <c r="G57" s="13"/>
       <c r="H57" s="13" t="n">
@@ -5944,7 +5935,7 @@
         <v>13</v>
       </c>
       <c r="M57" s="13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N57" s="13" t="s">
         <v>32</v>
@@ -5983,7 +5974,7 @@
         <v>49</v>
       </c>
       <c r="D58" s="53" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="L58" s="53" t="n">
         <v>22</v>
@@ -6006,7 +5997,7 @@
         <v>49</v>
       </c>
       <c r="D59" s="53" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="L59" s="53" t="n">
         <v>22</v>
@@ -6029,7 +6020,7 @@
         <v>49</v>
       </c>
       <c r="D60" s="53" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="L60" s="53" t="n">
         <v>22</v>
@@ -6052,7 +6043,7 @@
         <v>49</v>
       </c>
       <c r="D61" s="53" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="L61" s="53" t="n">
         <v>22</v>
@@ -6075,7 +6066,7 @@
         <v>49</v>
       </c>
       <c r="D62" s="53" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="L62" s="53" t="n">
         <v>22</v>
@@ -6098,34 +6089,28 @@
         <v>49</v>
       </c>
       <c r="D63" s="56" t="s">
+        <v>149</v>
+      </c>
+      <c r="E63" s="58" t="s">
+        <v>150</v>
+      </c>
+      <c r="F63" s="56" t="s">
         <v>151</v>
       </c>
-      <c r="E63" s="58" t="s">
+      <c r="G63" s="58" t="s">
         <v>152</v>
       </c>
-      <c r="F63" s="56" t="s">
-        <v>153</v>
-      </c>
-      <c r="G63" s="58" t="s">
-        <v>154</v>
-      </c>
       <c r="H63" s="56" t="n">
         <v>32</v>
       </c>
       <c r="I63" s="56" t="s">
         <v>38</v>
-      </c>
-      <c r="J63" s="56" t="s">
-        <v>155</v>
-      </c>
-      <c r="K63" s="56" t="s">
-        <v>156</v>
       </c>
       <c r="L63" s="56" t="n">
         <v>27</v>
       </c>
       <c r="M63" s="56" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="N63" s="56" t="s">
         <v>32</v>
@@ -6140,10 +6125,10 @@
         <v>31</v>
       </c>
       <c r="R63" s="58" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="S63" s="58" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="V63" s="56" t="n">
         <v>27000</v>
@@ -6160,13 +6145,13 @@
         <v>69</v>
       </c>
       <c r="D64" s="59" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E64" s="59" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F64" s="59" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G64" s="59" t="n">
         <v>2.7</v>
@@ -6187,7 +6172,7 @@
         <v>15.6</v>
       </c>
       <c r="M64" s="59" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="N64" s="59" t="s">
         <v>32</v>
@@ -6222,13 +6207,13 @@
         <v>69</v>
       </c>
       <c r="D65" s="59" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E65" s="59" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F65" s="59" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G65" s="59" t="n">
         <v>2.7</v>
@@ -6249,7 +6234,7 @@
         <v>15.6</v>
       </c>
       <c r="M65" s="59" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="N65" s="59" t="s">
         <v>32</v>
@@ -6284,13 +6269,13 @@
         <v>24</v>
       </c>
       <c r="D66" s="13" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E66" s="13" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F66" s="13" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G66" s="13" t="n">
         <v>2.7</v>
@@ -6311,7 +6296,7 @@
         <v>15.6</v>
       </c>
       <c r="M66" s="13" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="N66" s="13" t="s">
         <v>32</v>
@@ -6333,7 +6318,7 @@
       </c>
       <c r="T66" s="13"/>
       <c r="U66" s="17" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="V66" s="13" t="n">
         <v>17500</v>
@@ -6352,13 +6337,13 @@
         <v>24</v>
       </c>
       <c r="D67" s="13" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E67" s="13" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F67" s="13" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G67" s="13" t="n">
         <v>2.7</v>
@@ -6379,7 +6364,7 @@
         <v>15.6</v>
       </c>
       <c r="M67" s="13" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="N67" s="13" t="s">
         <v>32</v>
@@ -6412,16 +6397,16 @@
         <v>23</v>
       </c>
       <c r="C68" s="61" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D68" s="61" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E68" s="61" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F68" s="61" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="H68" s="61" t="n">
         <v>16</v>
@@ -6439,7 +6424,7 @@
         <v>15.6</v>
       </c>
       <c r="M68" s="61" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="N68" s="61" t="s">
         <v>31</v>
@@ -6454,7 +6439,7 @@
         <v>31</v>
       </c>
       <c r="R68" s="61" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="S68" s="61" t="s">
         <v>34</v>
@@ -6468,16 +6453,16 @@
         <v>23</v>
       </c>
       <c r="C69" s="61" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D69" s="61" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E69" s="61" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F69" s="61" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="H69" s="61" t="n">
         <v>16</v>
@@ -6495,7 +6480,7 @@
         <v>15.6</v>
       </c>
       <c r="M69" s="61" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="N69" s="61" t="s">
         <v>31</v>
@@ -6510,7 +6495,7 @@
         <v>31</v>
       </c>
       <c r="R69" s="61" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="S69" s="61" t="s">
         <v>34</v>
@@ -6524,16 +6509,16 @@
         <v>23</v>
       </c>
       <c r="C70" s="61" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D70" s="61" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E70" s="61" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F70" s="61" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="H70" s="61" t="n">
         <v>16</v>
@@ -6551,7 +6536,7 @@
         <v>15.6</v>
       </c>
       <c r="M70" s="61" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="N70" s="61" t="s">
         <v>31</v>
@@ -6566,7 +6551,7 @@
         <v>31</v>
       </c>
       <c r="R70" s="61" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="S70" s="61" t="s">
         <v>34</v>
@@ -6583,16 +6568,16 @@
         <v>23</v>
       </c>
       <c r="C71" s="56" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D71" s="56" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E71" s="56" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F71" s="56" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H71" s="56" t="n">
         <v>16</v>
@@ -6604,13 +6589,13 @@
         <v>256</v>
       </c>
       <c r="K71" s="56" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L71" s="56" t="n">
         <v>15.6</v>
       </c>
       <c r="M71" s="56" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="N71" s="56" t="s">
         <v>32</v>
@@ -6631,7 +6616,7 @@
         <v>34</v>
       </c>
       <c r="U71" s="63" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="V71" s="56" t="n">
         <v>22500</v>
@@ -6648,13 +6633,13 @@
         <v>69</v>
       </c>
       <c r="D72" s="64" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E72" s="64" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F72" s="64" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H72" s="64" t="n">
         <v>8</v>
@@ -6672,7 +6657,7 @@
         <v>14</v>
       </c>
       <c r="M72" s="64" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="N72" s="64" t="s">
         <v>32</v>
@@ -6707,13 +6692,13 @@
         <v>69</v>
       </c>
       <c r="D73" s="64" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E73" s="64" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F73" s="64" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H73" s="64" t="n">
         <v>8</v>
@@ -6731,7 +6716,7 @@
         <v>14</v>
       </c>
       <c r="M73" s="64" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="N73" s="64" t="s">
         <v>32</v>
@@ -6766,13 +6751,13 @@
         <v>69</v>
       </c>
       <c r="D74" s="64" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E74" s="64" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F74" s="64" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H74" s="64" t="n">
         <v>8</v>
@@ -6790,7 +6775,7 @@
         <v>14</v>
       </c>
       <c r="M74" s="64" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="N74" s="64" t="s">
         <v>32</v>
@@ -6811,7 +6796,7 @@
         <v>34</v>
       </c>
       <c r="U74" s="66" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="V74" s="64" t="n">
         <v>6500</v>
@@ -6825,16 +6810,16 @@
         <v>23</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="H75" s="2" t="n">
         <v>8</v>
@@ -6852,7 +6837,7 @@
         <v>14</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="N75" s="2" t="s">
         <v>32</v>
@@ -6884,16 +6869,16 @@
         <v>23</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="H76" s="2" t="n">
         <v>8</v>
@@ -6911,7 +6896,7 @@
         <v>14</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="N76" s="2" t="s">
         <v>32</v>
@@ -6946,13 +6931,13 @@
         <v>69</v>
       </c>
       <c r="D77" s="68" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E77" s="68" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F77" s="68" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G77" s="68" t="n">
         <v>2.7</v>
@@ -6973,7 +6958,7 @@
         <v>15.6</v>
       </c>
       <c r="M77" s="68" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="N77" s="68" t="s">
         <v>32</v>
@@ -7008,13 +6993,13 @@
         <v>69</v>
       </c>
       <c r="D78" s="68" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E78" s="68" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F78" s="68" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G78" s="68" t="n">
         <v>2.7</v>
@@ -7035,7 +7020,7 @@
         <v>15.6</v>
       </c>
       <c r="M78" s="68" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="N78" s="68" t="s">
         <v>32</v>
@@ -7070,13 +7055,13 @@
         <v>49</v>
       </c>
       <c r="D79" s="70" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E79" s="70" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F79" s="70" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G79" s="70" t="n">
         <v>1.7</v>
@@ -7091,13 +7076,13 @@
         <v>256</v>
       </c>
       <c r="K79" s="72" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L79" s="70" t="n">
         <v>14</v>
       </c>
       <c r="M79" s="70" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N79" s="72" t="s">
         <v>32</v>
@@ -7132,13 +7117,13 @@
         <v>49</v>
       </c>
       <c r="D80" s="70" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E80" s="70" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F80" s="70" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G80" s="70" t="n">
         <v>1.7</v>
@@ -7153,13 +7138,13 @@
         <v>256</v>
       </c>
       <c r="K80" s="72" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L80" s="70" t="n">
         <v>14</v>
       </c>
       <c r="M80" s="70" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N80" s="72" t="s">
         <v>32</v>
@@ -7194,13 +7179,13 @@
         <v>49</v>
       </c>
       <c r="D81" s="70" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E81" s="70" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F81" s="70" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G81" s="70" t="n">
         <v>1.7</v>
@@ -7215,13 +7200,13 @@
         <v>256</v>
       </c>
       <c r="K81" s="72" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L81" s="70" t="n">
         <v>14</v>
       </c>
       <c r="M81" s="70" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N81" s="72" t="s">
         <v>32</v>
@@ -7256,13 +7241,13 @@
         <v>49</v>
       </c>
       <c r="D82" s="70" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E82" s="70" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F82" s="70" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G82" s="70" t="n">
         <v>1.7</v>
@@ -7277,13 +7262,13 @@
         <v>256</v>
       </c>
       <c r="K82" s="72" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L82" s="70" t="n">
         <v>14</v>
       </c>
       <c r="M82" s="70" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N82" s="72" t="s">
         <v>32</v>
@@ -7318,13 +7303,13 @@
         <v>49</v>
       </c>
       <c r="D83" s="70" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E83" s="70" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F83" s="70" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G83" s="70" t="n">
         <v>1.7</v>
@@ -7339,13 +7324,13 @@
         <v>256</v>
       </c>
       <c r="K83" s="72" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L83" s="70" t="n">
         <v>14</v>
       </c>
       <c r="M83" s="70" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N83" s="72" t="s">
         <v>32</v>
@@ -7380,13 +7365,13 @@
         <v>49</v>
       </c>
       <c r="D84" s="70" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E84" s="70" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F84" s="70" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G84" s="70" t="n">
         <v>1.7</v>
@@ -7401,13 +7386,13 @@
         <v>256</v>
       </c>
       <c r="K84" s="72" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L84" s="70" t="n">
         <v>14</v>
       </c>
       <c r="M84" s="70" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N84" s="72" t="s">
         <v>32</v>
@@ -7442,13 +7427,13 @@
         <v>49</v>
       </c>
       <c r="D85" s="70" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E85" s="70" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F85" s="70" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G85" s="70" t="n">
         <v>1.7</v>
@@ -7463,13 +7448,13 @@
         <v>256</v>
       </c>
       <c r="K85" s="72" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L85" s="70" t="n">
         <v>14</v>
       </c>
       <c r="M85" s="70" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N85" s="72" t="s">
         <v>32</v>
@@ -7504,13 +7489,13 @@
         <v>49</v>
       </c>
       <c r="D86" s="70" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E86" s="70" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F86" s="70" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G86" s="70" t="n">
         <v>1.7</v>
@@ -7525,13 +7510,13 @@
         <v>256</v>
       </c>
       <c r="K86" s="72" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L86" s="70" t="n">
         <v>14</v>
       </c>
       <c r="M86" s="70" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N86" s="72" t="s">
         <v>32</v>
@@ -7566,13 +7551,13 @@
         <v>49</v>
       </c>
       <c r="D87" s="70" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E87" s="70" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F87" s="70" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G87" s="70" t="n">
         <v>1.7</v>
@@ -7587,13 +7572,13 @@
         <v>256</v>
       </c>
       <c r="K87" s="72" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L87" s="70" t="n">
         <v>14</v>
       </c>
       <c r="M87" s="70" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N87" s="72" t="s">
         <v>32</v>
@@ -7628,13 +7613,13 @@
         <v>49</v>
       </c>
       <c r="D88" s="70" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E88" s="70" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F88" s="70" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G88" s="70" t="n">
         <v>1.7</v>
@@ -7649,13 +7634,13 @@
         <v>256</v>
       </c>
       <c r="K88" s="72" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L88" s="70" t="n">
         <v>14</v>
       </c>
       <c r="M88" s="70" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N88" s="72" t="s">
         <v>32</v>
@@ -7676,7 +7661,7 @@
         <v>34</v>
       </c>
       <c r="U88" s="73" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="V88" s="70" t="n">
         <v>7800</v>
@@ -7693,13 +7678,13 @@
         <v>49</v>
       </c>
       <c r="D89" s="70" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E89" s="70" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F89" s="70" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G89" s="70" t="n">
         <v>1.7</v>
@@ -7714,13 +7699,13 @@
         <v>256</v>
       </c>
       <c r="K89" s="72" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L89" s="70" t="n">
         <v>14</v>
       </c>
       <c r="M89" s="70" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N89" s="72" t="s">
         <v>32</v>
@@ -7755,13 +7740,13 @@
         <v>49</v>
       </c>
       <c r="D90" s="70" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E90" s="70" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F90" s="70" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G90" s="70" t="n">
         <v>1.7</v>
@@ -7776,13 +7761,13 @@
         <v>256</v>
       </c>
       <c r="K90" s="72" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L90" s="70" t="n">
         <v>14</v>
       </c>
       <c r="M90" s="70" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N90" s="72" t="s">
         <v>32</v>
@@ -7817,13 +7802,13 @@
         <v>49</v>
       </c>
       <c r="D91" s="70" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E91" s="70" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F91" s="70" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G91" s="70" t="n">
         <v>1.7</v>
@@ -7838,13 +7823,13 @@
         <v>256</v>
       </c>
       <c r="K91" s="72" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L91" s="70" t="n">
         <v>14</v>
       </c>
       <c r="M91" s="70" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N91" s="72" t="s">
         <v>32</v>
@@ -7876,16 +7861,16 @@
         <v>23</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D92" s="13" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E92" s="13" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F92" s="13" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G92" s="13"/>
       <c r="H92" s="13" t="n">
@@ -7902,7 +7887,7 @@
       </c>
       <c r="L92" s="13"/>
       <c r="M92" s="13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N92" s="13" t="s">
         <v>31</v>
@@ -7941,13 +7926,13 @@
         <v>49</v>
       </c>
       <c r="D93" s="74" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E93" s="74" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F93" s="74" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G93" s="74" t="n">
         <v>2.5</v>
@@ -7968,7 +7953,7 @@
         <v>15.6</v>
       </c>
       <c r="M93" s="74" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="N93" s="74" t="s">
         <v>32</v>
@@ -8005,13 +7990,13 @@
         <v>49</v>
       </c>
       <c r="D94" s="74" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E94" s="74" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F94" s="74" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G94" s="74" t="n">
         <v>2.5</v>
@@ -8032,7 +8017,7 @@
         <v>15.6</v>
       </c>
       <c r="M94" s="74" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="N94" s="74" t="s">
         <v>32</v>
@@ -8053,7 +8038,7 @@
         <v>34</v>
       </c>
       <c r="U94" s="77" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="V94" s="74" t="n">
         <v>15000</v>
@@ -8070,13 +8055,13 @@
         <v>49</v>
       </c>
       <c r="D95" s="74" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E95" s="74" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F95" s="74" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G95" s="74" t="n">
         <v>2.5</v>
@@ -8097,7 +8082,7 @@
         <v>15.6</v>
       </c>
       <c r="M95" s="74" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="N95" s="74" t="s">
         <v>32</v>
@@ -8119,7 +8104,7 @@
       </c>
       <c r="T95" s="74"/>
       <c r="U95" s="77" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="V95" s="74" t="n">
         <v>15000</v>
@@ -8136,13 +8121,13 @@
         <v>69</v>
       </c>
       <c r="D96" s="13" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E96" s="13" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F96" s="13" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G96" s="13" t="n">
         <v>1.9</v>
@@ -8163,7 +8148,7 @@
         <v>15.6</v>
       </c>
       <c r="M96" s="13" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="N96" s="13" t="s">
         <v>32</v>
@@ -8199,10 +8184,10 @@
         <v>23</v>
       </c>
       <c r="C97" s="78" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D97" s="78" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E97" s="78" t="s">
         <v>79</v>
@@ -8229,7 +8214,7 @@
         <v>15.6</v>
       </c>
       <c r="M97" s="78" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="N97" s="78" t="s">
         <v>31</v>
@@ -8264,10 +8249,10 @@
         <v>23</v>
       </c>
       <c r="C98" s="78" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D98" s="78" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E98" s="78" t="s">
         <v>79</v>
@@ -8294,7 +8279,7 @@
         <v>15.6</v>
       </c>
       <c r="M98" s="78" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="N98" s="78" t="s">
         <v>31</v>
@@ -8326,10 +8311,10 @@
         <v>23</v>
       </c>
       <c r="C99" s="78" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D99" s="78" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E99" s="78" t="s">
         <v>79</v>
@@ -8356,7 +8341,7 @@
         <v>15.6</v>
       </c>
       <c r="M99" s="78" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="N99" s="78" t="s">
         <v>31</v>
@@ -8388,10 +8373,10 @@
         <v>23</v>
       </c>
       <c r="C100" s="78" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D100" s="78" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E100" s="78" t="s">
         <v>79</v>
@@ -8418,7 +8403,7 @@
         <v>15.6</v>
       </c>
       <c r="M100" s="78" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="N100" s="78" t="s">
         <v>31</v>
@@ -8450,10 +8435,10 @@
         <v>23</v>
       </c>
       <c r="C101" s="78" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D101" s="78" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E101" s="78" t="s">
         <v>79</v>
@@ -8480,7 +8465,7 @@
         <v>15.6</v>
       </c>
       <c r="M101" s="78" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="N101" s="78" t="s">
         <v>31</v>
@@ -8512,10 +8497,10 @@
         <v>23</v>
       </c>
       <c r="C102" s="78" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D102" s="78" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E102" s="78" t="s">
         <v>79</v>
@@ -8542,7 +8527,7 @@
         <v>15.6</v>
       </c>
       <c r="M102" s="78" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="N102" s="78" t="s">
         <v>31</v>
@@ -8574,10 +8559,10 @@
         <v>23</v>
       </c>
       <c r="C103" s="78" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D103" s="78" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E103" s="78" t="s">
         <v>79</v>
@@ -8604,7 +8589,7 @@
         <v>15.6</v>
       </c>
       <c r="M103" s="78" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="N103" s="78" t="s">
         <v>31</v>
@@ -8636,10 +8621,10 @@
         <v>23</v>
       </c>
       <c r="C104" s="78" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D104" s="78" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E104" s="78" t="s">
         <v>79</v>
@@ -8666,7 +8651,7 @@
         <v>15.6</v>
       </c>
       <c r="M104" s="78" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="N104" s="78" t="s">
         <v>31</v>
@@ -8698,10 +8683,10 @@
         <v>23</v>
       </c>
       <c r="C105" s="78" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D105" s="78" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E105" s="78" t="s">
         <v>79</v>
@@ -8728,7 +8713,7 @@
         <v>15.6</v>
       </c>
       <c r="M105" s="78" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="N105" s="78" t="s">
         <v>31</v>
@@ -8757,10 +8742,10 @@
         <v>23</v>
       </c>
       <c r="C106" s="78" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D106" s="78" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E106" s="78" t="s">
         <v>79</v>
@@ -8787,7 +8772,7 @@
         <v>15.6</v>
       </c>
       <c r="M106" s="78" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="N106" s="78" t="s">
         <v>31</v>
@@ -8819,13 +8804,13 @@
         <v>69</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G107" s="2"/>
       <c r="H107" s="2" t="n">
@@ -8838,11 +8823,11 @@
         <v>256</v>
       </c>
       <c r="K107" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L107" s="2"/>
       <c r="M107" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="V107" s="2" t="n">
         <v>9500</v>
@@ -8856,13 +8841,13 @@
         <v>69</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G108" s="2"/>
       <c r="H108" s="2" t="n">
@@ -8875,11 +8860,11 @@
         <v>256</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L108" s="2"/>
       <c r="M108" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="V108" s="2" t="n">
         <v>9500</v>
@@ -8893,13 +8878,13 @@
         <v>69</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G109" s="2"/>
       <c r="H109" s="2" t="n">
@@ -8912,11 +8897,11 @@
         <v>256</v>
       </c>
       <c r="K109" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L109" s="2"/>
       <c r="M109" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="V109" s="2" t="n">
         <v>9500</v>
@@ -8930,13 +8915,13 @@
         <v>69</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G110" s="2"/>
       <c r="H110" s="2" t="n">
@@ -8949,11 +8934,11 @@
         <v>256</v>
       </c>
       <c r="K110" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L110" s="2"/>
       <c r="M110" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="V110" s="2" t="n">
         <v>9500</v>
@@ -8967,13 +8952,13 @@
         <v>69</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G111" s="2"/>
       <c r="H111" s="2" t="n">
@@ -8986,11 +8971,11 @@
         <v>256</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L111" s="2"/>
       <c r="M111" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="V111" s="2" t="n">
         <v>9500</v>
@@ -9007,25 +8992,25 @@
         <v>49</v>
       </c>
       <c r="D112" s="84" t="s">
+        <v>205</v>
+      </c>
+      <c r="E112" s="84" t="s">
+        <v>206</v>
+      </c>
+      <c r="F112" s="84" t="s">
+        <v>207</v>
+      </c>
+      <c r="G112" s="84" t="s">
         <v>208</v>
       </c>
-      <c r="E112" s="84" t="s">
-        <v>209</v>
-      </c>
-      <c r="F112" s="84" t="s">
-        <v>210</v>
-      </c>
-      <c r="G112" s="84" t="s">
-        <v>211</v>
-      </c>
       <c r="H112" s="84" t="n">
         <v>32</v>
       </c>
       <c r="I112" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="J112" s="84" t="s">
-        <v>212</v>
+      <c r="J112" s="84" t="n">
+        <v>1</v>
       </c>
       <c r="K112" s="84" t="s">
         <v>46</v>
@@ -9034,22 +9019,22 @@
         <v>15.6</v>
       </c>
       <c r="M112" s="84" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="N112" s="82" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="O112" s="82" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="P112" s="82" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="Q112" s="82" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="R112" s="82" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="V112" s="84" t="n">
         <v>33000</v>
@@ -9063,13 +9048,13 @@
         <v>41</v>
       </c>
       <c r="D113" s="84" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E113" s="84" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F113" s="84" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G113" s="84"/>
       <c r="H113" s="84" t="n">
@@ -9088,19 +9073,19 @@
         <v>15.6</v>
       </c>
       <c r="M113" s="84" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="N113" s="82" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="O113" s="82" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="P113" s="82" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="Q113" s="82" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="R113" s="82" t="s">
         <v>33</v>
@@ -9117,13 +9102,13 @@
         <v>49</v>
       </c>
       <c r="D114" s="85" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E114" s="85" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F114" s="85" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H114" s="85" t="n">
         <v>8</v>
@@ -9141,7 +9126,7 @@
         <v>14</v>
       </c>
       <c r="M114" s="85" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="N114" s="85" t="s">
         <v>32</v>
@@ -9170,13 +9155,13 @@
         <v>49</v>
       </c>
       <c r="D115" s="85" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E115" s="85" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F115" s="85" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H115" s="85" t="n">
         <v>8</v>
@@ -9194,7 +9179,7 @@
         <v>14</v>
       </c>
       <c r="M115" s="85" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="N115" s="85" t="s">
         <v>32</v>
@@ -9223,13 +9208,13 @@
         <v>49</v>
       </c>
       <c r="D116" s="85" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E116" s="85" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F116" s="85" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H116" s="85" t="n">
         <v>8</v>
@@ -9247,7 +9232,7 @@
         <v>14</v>
       </c>
       <c r="M116" s="85" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="N116" s="85" t="s">
         <v>32</v>
@@ -9276,13 +9261,13 @@
         <v>49</v>
       </c>
       <c r="D117" s="85" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E117" s="85" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F117" s="85" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H117" s="85" t="n">
         <v>8</v>
@@ -9300,7 +9285,7 @@
         <v>14</v>
       </c>
       <c r="M117" s="85" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="N117" s="85" t="s">
         <v>32</v>
@@ -9329,13 +9314,13 @@
         <v>49</v>
       </c>
       <c r="D118" s="85" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E118" s="85" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F118" s="85" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H118" s="85" t="n">
         <v>8</v>
@@ -9353,7 +9338,7 @@
         <v>14</v>
       </c>
       <c r="M118" s="85" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="N118" s="85" t="s">
         <v>32</v>
@@ -9382,13 +9367,13 @@
         <v>49</v>
       </c>
       <c r="D119" s="85" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E119" s="85" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F119" s="85" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H119" s="85" t="n">
         <v>8</v>
@@ -9406,7 +9391,7 @@
         <v>14</v>
       </c>
       <c r="M119" s="85" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="N119" s="85" t="s">
         <v>32</v>
@@ -9435,13 +9420,13 @@
         <v>49</v>
       </c>
       <c r="D120" s="85" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E120" s="85" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F120" s="85" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H120" s="85" t="n">
         <v>8</v>
@@ -9459,7 +9444,7 @@
         <v>14</v>
       </c>
       <c r="M120" s="85" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="N120" s="85" t="s">
         <v>32</v>
@@ -9488,13 +9473,13 @@
         <v>49</v>
       </c>
       <c r="D121" s="85" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E121" s="85" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F121" s="85" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H121" s="85" t="n">
         <v>8</v>
@@ -9512,7 +9497,7 @@
         <v>14</v>
       </c>
       <c r="M121" s="85" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="N121" s="85" t="s">
         <v>32</v>
@@ -9541,13 +9526,13 @@
         <v>49</v>
       </c>
       <c r="D122" s="87" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E122" s="87" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F122" s="88" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G122" s="88" t="n">
         <v>2.5</v>
@@ -9568,13 +9553,13 @@
         <v>17</v>
       </c>
       <c r="M122" s="87" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="N122" s="87" t="s">
         <v>32</v>
       </c>
       <c r="O122" s="87" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="P122" s="89" t="s">
         <v>31</v>
@@ -9586,7 +9571,7 @@
         <v>33</v>
       </c>
       <c r="S122" s="87" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="V122" s="87" t="n">
         <v>17000</v>
@@ -9594,7 +9579,7 @@
     </row>
     <row r="123" s="87" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="90" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B123" s="87" t="s">
         <v>23</v>
@@ -9603,13 +9588,13 @@
         <v>49</v>
       </c>
       <c r="D123" s="87" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E123" s="87" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F123" s="88" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G123" s="88" t="n">
         <v>2.5</v>
@@ -9630,13 +9615,13 @@
         <v>17</v>
       </c>
       <c r="M123" s="87" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="N123" s="87" t="s">
         <v>32</v>
       </c>
       <c r="O123" s="87" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="P123" s="89" t="s">
         <v>31</v>
@@ -9648,7 +9633,7 @@
         <v>33</v>
       </c>
       <c r="S123" s="87" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="V123" s="87" t="n">
         <v>17000</v>
@@ -9662,13 +9647,13 @@
         <v>69</v>
       </c>
       <c r="D124" s="84" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E124" s="84" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F124" s="84" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G124" s="84" t="n">
         <v>1.9</v>
@@ -9689,7 +9674,7 @@
         <v>15.6</v>
       </c>
       <c r="M124" s="84" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="N124" s="84" t="s">
         <v>31</v>
@@ -9721,13 +9706,13 @@
         <v>69</v>
       </c>
       <c r="D125" s="84" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E125" s="84" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F125" s="84" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G125" s="84" t="n">
         <v>1.9</v>
@@ -9748,7 +9733,7 @@
         <v>15.6</v>
       </c>
       <c r="M125" s="84" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="N125" s="84" t="s">
         <v>31</v>
@@ -9780,13 +9765,13 @@
         <v>41</v>
       </c>
       <c r="D126" s="92" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E126" s="94" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F126" s="92" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G126" s="92" t="n">
         <v>2.3</v>
@@ -9801,13 +9786,13 @@
         <v>256</v>
       </c>
       <c r="K126" s="92" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L126" s="92" t="n">
         <v>15.6</v>
       </c>
       <c r="M126" s="92" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="N126" s="92" t="s">
         <v>32</v>
@@ -9831,7 +9816,7 @@
         <v>9500</v>
       </c>
       <c r="W126" s="95" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="127" s="92" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9842,13 +9827,13 @@
         <v>41</v>
       </c>
       <c r="D127" s="92" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E127" s="94" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F127" s="92" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G127" s="92" t="n">
         <v>2.3</v>
@@ -9863,13 +9848,13 @@
         <v>256</v>
       </c>
       <c r="K127" s="92" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L127" s="92" t="n">
         <v>15.6</v>
       </c>
       <c r="M127" s="92" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="N127" s="92" t="s">
         <v>32</v>
@@ -9893,7 +9878,7 @@
         <v>9500</v>
       </c>
       <c r="W127" s="95" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="128" s="92" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9904,13 +9889,13 @@
         <v>41</v>
       </c>
       <c r="D128" s="92" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E128" s="94" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F128" s="92" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G128" s="92" t="n">
         <v>2.3</v>
@@ -9925,13 +9910,13 @@
         <v>256</v>
       </c>
       <c r="K128" s="92" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L128" s="92" t="n">
         <v>15.6</v>
       </c>
       <c r="M128" s="92" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="N128" s="92" t="s">
         <v>32</v>
@@ -9955,7 +9940,7 @@
         <v>9500</v>
       </c>
       <c r="W128" s="95" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="129" s="92" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9966,13 +9951,13 @@
         <v>41</v>
       </c>
       <c r="D129" s="92" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E129" s="94" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F129" s="92" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G129" s="92" t="n">
         <v>2.3</v>
@@ -9987,13 +9972,13 @@
         <v>256</v>
       </c>
       <c r="K129" s="92" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L129" s="92" t="n">
         <v>15.6</v>
       </c>
       <c r="M129" s="92" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="N129" s="92" t="s">
         <v>32</v>
@@ -10017,7 +10002,7 @@
         <v>9500</v>
       </c>
       <c r="W129" s="95" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="130" s="92" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10028,13 +10013,13 @@
         <v>41</v>
       </c>
       <c r="D130" s="92" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E130" s="94" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F130" s="92" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G130" s="92" t="n">
         <v>2.3</v>
@@ -10049,13 +10034,13 @@
         <v>256</v>
       </c>
       <c r="K130" s="92" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L130" s="92" t="n">
         <v>15.6</v>
       </c>
       <c r="M130" s="92" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="N130" s="92" t="s">
         <v>32</v>
@@ -10079,7 +10064,7 @@
         <v>9500</v>
       </c>
       <c r="W130" s="95" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="131" s="92" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10090,13 +10075,13 @@
         <v>41</v>
       </c>
       <c r="D131" s="92" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E131" s="94" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F131" s="92" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G131" s="92" t="n">
         <v>2.3</v>
@@ -10111,13 +10096,13 @@
         <v>256</v>
       </c>
       <c r="K131" s="92" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L131" s="92" t="n">
         <v>15.6</v>
       </c>
       <c r="M131" s="92" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="N131" s="92" t="s">
         <v>32</v>
@@ -10141,7 +10126,7 @@
         <v>9500</v>
       </c>
       <c r="W131" s="95" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="132" s="92" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10152,13 +10137,13 @@
         <v>41</v>
       </c>
       <c r="D132" s="92" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E132" s="94" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F132" s="92" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G132" s="92" t="n">
         <v>2.3</v>
@@ -10173,13 +10158,13 @@
         <v>256</v>
       </c>
       <c r="K132" s="92" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L132" s="92" t="n">
         <v>15.6</v>
       </c>
       <c r="M132" s="92" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="N132" s="92" t="s">
         <v>32</v>
@@ -10203,7 +10188,7 @@
         <v>9500</v>
       </c>
       <c r="W132" s="95" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="133" s="92" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10214,13 +10199,13 @@
         <v>41</v>
       </c>
       <c r="D133" s="92" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E133" s="94" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F133" s="92" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G133" s="92" t="n">
         <v>2.3</v>
@@ -10235,13 +10220,13 @@
         <v>256</v>
       </c>
       <c r="K133" s="92" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L133" s="92" t="n">
         <v>15.6</v>
       </c>
       <c r="M133" s="92" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="N133" s="92" t="s">
         <v>32</v>
@@ -10265,7 +10250,7 @@
         <v>9500</v>
       </c>
       <c r="W133" s="95" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="134" s="92" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10276,13 +10261,13 @@
         <v>41</v>
       </c>
       <c r="D134" s="92" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E134" s="94" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F134" s="92" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G134" s="92" t="n">
         <v>2.3</v>
@@ -10297,13 +10282,13 @@
         <v>256</v>
       </c>
       <c r="K134" s="92" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L134" s="92" t="n">
         <v>15.6</v>
       </c>
       <c r="M134" s="92" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="N134" s="92" t="s">
         <v>32</v>
@@ -10327,7 +10312,7 @@
         <v>9500</v>
       </c>
       <c r="W134" s="95" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="135" s="92" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10338,13 +10323,13 @@
         <v>41</v>
       </c>
       <c r="D135" s="92" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E135" s="94" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F135" s="92" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G135" s="92" t="n">
         <v>2.3</v>
@@ -10359,13 +10344,13 @@
         <v>256</v>
       </c>
       <c r="K135" s="92" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L135" s="92" t="n">
         <v>15.6</v>
       </c>
       <c r="M135" s="92" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="N135" s="92" t="s">
         <v>32</v>
@@ -10389,7 +10374,7 @@
         <v>9500</v>
       </c>
       <c r="W135" s="95" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="136" s="92" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10400,13 +10385,13 @@
         <v>41</v>
       </c>
       <c r="D136" s="92" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E136" s="94" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F136" s="92" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G136" s="92" t="n">
         <v>2.3</v>
@@ -10421,13 +10406,13 @@
         <v>256</v>
       </c>
       <c r="K136" s="92" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L136" s="92" t="n">
         <v>15.6</v>
       </c>
       <c r="M136" s="92" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="N136" s="92" t="s">
         <v>32</v>
@@ -10451,7 +10436,7 @@
         <v>9500</v>
       </c>
       <c r="W136" s="95" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="137" s="92" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10462,13 +10447,13 @@
         <v>41</v>
       </c>
       <c r="D137" s="92" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E137" s="94" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F137" s="92" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G137" s="92" t="n">
         <v>2.3</v>
@@ -10483,13 +10468,13 @@
         <v>256</v>
       </c>
       <c r="K137" s="92" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L137" s="92" t="n">
         <v>15.6</v>
       </c>
       <c r="M137" s="92" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="N137" s="92" t="s">
         <v>32</v>
@@ -10513,22 +10498,22 @@
         <v>9500</v>
       </c>
       <c r="W137" s="95" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="138" s="96" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B138" s="97"/>
       <c r="C138" s="96" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D138" s="96" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E138" s="98" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F138" s="96" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H138" s="96" t="n">
         <v>4</v>
@@ -10540,13 +10525,13 @@
         <v>128</v>
       </c>
       <c r="K138" s="96" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L138" s="96" t="n">
         <v>13.3</v>
       </c>
       <c r="M138" s="96" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="N138" s="96" t="s">
         <v>31</v>
@@ -10561,7 +10546,7 @@
         <v>31</v>
       </c>
       <c r="R138" s="96" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="S138" s="96" t="s">
         <v>34</v>
@@ -10573,16 +10558,16 @@
     <row r="139" s="96" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B139" s="97"/>
       <c r="C139" s="96" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D139" s="96" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E139" s="98" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F139" s="96" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H139" s="96" t="n">
         <v>4</v>
@@ -10594,13 +10579,13 @@
         <v>128</v>
       </c>
       <c r="K139" s="96" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L139" s="96" t="n">
         <v>13.3</v>
       </c>
       <c r="M139" s="96" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="N139" s="96" t="s">
         <v>31</v>
@@ -10615,7 +10600,7 @@
         <v>31</v>
       </c>
       <c r="R139" s="96" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="S139" s="96" t="s">
         <v>34</v>
@@ -10627,16 +10612,16 @@
     <row r="140" s="96" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B140" s="97"/>
       <c r="C140" s="96" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D140" s="96" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E140" s="98" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F140" s="96" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H140" s="96" t="n">
         <v>4</v>
@@ -10648,13 +10633,13 @@
         <v>128</v>
       </c>
       <c r="K140" s="96" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L140" s="96" t="n">
         <v>13.3</v>
       </c>
       <c r="M140" s="96" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="N140" s="96" t="s">
         <v>31</v>
@@ -10669,7 +10654,7 @@
         <v>31</v>
       </c>
       <c r="R140" s="96" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="S140" s="96" t="s">
         <v>34</v>
@@ -10681,16 +10666,16 @@
     <row r="141" s="96" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B141" s="97"/>
       <c r="C141" s="96" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D141" s="96" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E141" s="98" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F141" s="96" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H141" s="96" t="n">
         <v>4</v>
@@ -10702,13 +10687,13 @@
         <v>128</v>
       </c>
       <c r="K141" s="96" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L141" s="96" t="n">
         <v>13.3</v>
       </c>
       <c r="M141" s="96" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="N141" s="96" t="s">
         <v>31</v>
@@ -10723,7 +10708,7 @@
         <v>31</v>
       </c>
       <c r="R141" s="96" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="S141" s="96" t="s">
         <v>34</v>
@@ -10735,16 +10720,16 @@
     <row r="142" s="96" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B142" s="97"/>
       <c r="C142" s="96" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D142" s="96" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E142" s="98" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F142" s="96" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H142" s="96" t="n">
         <v>4</v>
@@ -10756,13 +10741,13 @@
         <v>128</v>
       </c>
       <c r="K142" s="96" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L142" s="96" t="n">
         <v>13.3</v>
       </c>
       <c r="M142" s="96" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="N142" s="96" t="s">
         <v>31</v>
@@ -10777,7 +10762,7 @@
         <v>31</v>
       </c>
       <c r="R142" s="96" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="S142" s="96" t="s">
         <v>34</v>
@@ -10789,16 +10774,16 @@
     <row r="143" s="96" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B143" s="97"/>
       <c r="C143" s="96" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D143" s="96" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E143" s="98" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F143" s="96" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H143" s="96" t="n">
         <v>4</v>
@@ -10810,13 +10795,13 @@
         <v>128</v>
       </c>
       <c r="K143" s="96" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L143" s="96" t="n">
         <v>13.3</v>
       </c>
       <c r="M143" s="96" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="N143" s="96" t="s">
         <v>31</v>
@@ -10831,7 +10816,7 @@
         <v>31</v>
       </c>
       <c r="R143" s="96" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="S143" s="96" t="s">
         <v>34</v>
@@ -10864,14 +10849,14 @@
       <selection pane="bottomLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="48.60546875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="48.56640625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="99" width="20.64"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="2" min="2" style="100" width="19.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="100" width="19.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="99" width="13.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="99" width="35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="99" width="34.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="99" width="34.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="99" width="9.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="99" width="18.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="99" width="5.1"/>
@@ -10898,7 +10883,7 @@
         <v>21</v>
       </c>
       <c r="C1" s="103" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D1" s="104" t="s">
         <v>2</v>
@@ -10907,13 +10892,13 @@
         <v>3</v>
       </c>
       <c r="F1" s="105" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G1" s="105" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="106" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="I1" s="105" t="s">
         <v>7</v>
@@ -10922,16 +10907,16 @@
         <v>8</v>
       </c>
       <c r="K1" s="105" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="L1" s="105" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="M1" s="105" t="s">
         <v>11</v>
       </c>
       <c r="N1" s="105" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="O1" s="106" t="s">
         <v>13</v>
@@ -10940,10 +10925,10 @@
         <v>360</v>
       </c>
       <c r="Q1" s="106" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="R1" s="106" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="S1" s="105" t="s">
         <v>17</v>
@@ -10969,16 +10954,16 @@
         <v>49</v>
       </c>
       <c r="E2" s="108" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F2" s="108" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G2" s="108" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H2" s="108" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="I2" s="108" t="n">
         <v>8</v>
@@ -10990,28 +10975,28 @@
         <v>512</v>
       </c>
       <c r="L2" s="108" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M2" s="108" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="N2" s="108" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="O2" s="108" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="P2" s="108" t="n">
         <v>180</v>
       </c>
       <c r="Q2" s="108" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="R2" s="108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="S2" s="108" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="T2" s="108"/>
       <c r="U2" s="108" t="n">
@@ -11032,16 +11017,16 @@
         <v>49</v>
       </c>
       <c r="E3" s="108" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F3" s="108" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="G3" s="108" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H3" s="108" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="I3" s="108" t="n">
         <v>8</v>
@@ -11053,28 +11038,28 @@
         <v>256</v>
       </c>
       <c r="L3" s="108" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M3" s="108" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="N3" s="108" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="O3" s="108" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="P3" s="108" t="n">
         <v>180</v>
       </c>
       <c r="Q3" s="108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="R3" s="108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="S3" s="108" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="T3" s="108"/>
       <c r="U3" s="108" t="n">
@@ -11095,16 +11080,16 @@
         <v>49</v>
       </c>
       <c r="E4" s="108" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F4" s="108" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G4" s="108" t="s">
+        <v>250</v>
+      </c>
+      <c r="H4" s="108" t="s">
         <v>254</v>
-      </c>
-      <c r="H4" s="108" t="s">
-        <v>258</v>
       </c>
       <c r="I4" s="108" t="n">
         <v>8</v>
@@ -11116,31 +11101,31 @@
         <v>256</v>
       </c>
       <c r="L4" s="108" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M4" s="108" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="N4" s="108" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="O4" s="108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="P4" s="108" t="n">
         <v>360</v>
       </c>
       <c r="Q4" s="108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="R4" s="108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="S4" s="108" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="T4" s="108" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="U4" s="108" t="n">
         <v>14000</v>
@@ -11157,19 +11142,19 @@
         <v>23</v>
       </c>
       <c r="D5" s="108" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E5" s="108" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F5" s="108" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G5" s="108" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H5" s="108" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="I5" s="108" t="n">
         <v>16</v>
@@ -11181,28 +11166,28 @@
         <v>256</v>
       </c>
       <c r="L5" s="108" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M5" s="108" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="N5" s="108" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="O5" s="108" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="P5" s="108" t="n">
         <v>180</v>
       </c>
       <c r="Q5" s="108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="R5" s="108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="S5" s="108" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="T5" s="108"/>
       <c r="U5" s="108" t="n">
@@ -11220,19 +11205,19 @@
         <v>23</v>
       </c>
       <c r="D6" s="108" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E6" s="108" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F6" s="108" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G6" s="108" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H6" s="108" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="I6" s="108" t="n">
         <v>16</v>
@@ -11244,28 +11229,28 @@
         <v>256</v>
       </c>
       <c r="L6" s="108" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M6" s="108" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="N6" s="108" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="O6" s="108" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="P6" s="108" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="Q6" s="108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="R6" s="108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="S6" s="108" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="T6" s="108"/>
       <c r="U6" s="108" t="n">
@@ -11286,16 +11271,16 @@
         <v>49</v>
       </c>
       <c r="E7" s="108" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F7" s="108" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="G7" s="108" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H7" s="108" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="I7" s="108" t="n">
         <v>8</v>
@@ -11307,28 +11292,28 @@
         <v>256</v>
       </c>
       <c r="L7" s="108" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M7" s="108" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="N7" s="108" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="O7" s="108" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="P7" s="108" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="Q7" s="108" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="R7" s="108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="S7" s="108" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="T7" s="108"/>
       <c r="U7" s="108" t="n">
@@ -11349,16 +11334,16 @@
         <v>49</v>
       </c>
       <c r="E8" s="108" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F8" s="108" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="G8" s="108" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H8" s="108" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="I8" s="108" t="n">
         <v>8</v>
@@ -11373,25 +11358,25 @@
         <v>46</v>
       </c>
       <c r="M8" s="108" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="N8" s="108" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="O8" s="108" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="P8" s="108" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="Q8" s="108" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="R8" s="108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="S8" s="108" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="T8" s="108" t="n">
         <v>0</v>
@@ -11414,16 +11399,16 @@
         <v>49</v>
       </c>
       <c r="E9" s="108" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F9" s="108" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G9" s="108" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H9" s="108" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="I9" s="108" t="n">
         <v>4</v>
@@ -11432,31 +11417,31 @@
         <v>38</v>
       </c>
       <c r="K9" s="108" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="L9" s="108" t="s">
         <v>9</v>
       </c>
       <c r="M9" s="108" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="N9" s="108" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="O9" s="108" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="P9" s="108" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="Q9" s="108" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="R9" s="108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="S9" s="108" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="T9" s="108"/>
       <c r="U9" s="108" t="n">
@@ -11477,16 +11462,16 @@
         <v>49</v>
       </c>
       <c r="E10" s="108" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F10" s="108" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G10" s="108" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H10" s="108" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="I10" s="108" t="n">
         <v>16</v>
@@ -11498,28 +11483,28 @@
         <v>256</v>
       </c>
       <c r="L10" s="108" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M10" s="108" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="N10" s="108" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="O10" s="108" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="P10" s="108" t="n">
         <v>180</v>
       </c>
       <c r="Q10" s="108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="R10" s="108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="S10" s="108" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="T10" s="108"/>
       <c r="U10" s="108" t="n">
@@ -11540,22 +11525,22 @@
         <v>49</v>
       </c>
       <c r="E11" s="108" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F11" s="108" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G11" s="108" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="H11" s="108" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="I11" s="108" t="n">
         <v>4</v>
       </c>
       <c r="J11" s="108" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="K11" s="108" t="n">
         <v>256</v>
@@ -11564,28 +11549,28 @@
         <v>46</v>
       </c>
       <c r="M11" s="108" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="N11" s="108" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="O11" s="108" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="P11" s="108" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="Q11" s="108" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="R11" s="108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="S11" s="108" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="T11" s="108" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="U11" s="108" t="n">
         <v>6000</v>
@@ -11605,16 +11590,16 @@
         <v>49</v>
       </c>
       <c r="E12" s="108" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="F12" s="108" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="G12" s="108" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H12" s="108" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="I12" s="108" t="n">
         <v>16</v>
@@ -11626,28 +11611,28 @@
         <v>256</v>
       </c>
       <c r="L12" s="108" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M12" s="108" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="N12" s="108" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="O12" s="108" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="P12" s="108" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="Q12" s="108" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="R12" s="108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="S12" s="108" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="T12" s="108" t="n">
         <v>8500</v>
@@ -11670,16 +11655,16 @@
         <v>49</v>
       </c>
       <c r="E13" s="108" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="F13" s="108" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="G13" s="108" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H13" s="108" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="I13" s="108" t="n">
         <v>8</v>
@@ -11691,31 +11676,31 @@
         <v>256</v>
       </c>
       <c r="L13" s="108" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M13" s="108" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="N13" s="108" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="O13" s="108" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="P13" s="108" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="Q13" s="108" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="R13" s="108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="S13" s="108" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="T13" s="108" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="U13" s="111" t="n">
         <v>10500</v>
@@ -11735,16 +11720,16 @@
         <v>49</v>
       </c>
       <c r="E14" s="108" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="F14" s="108" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="G14" s="108" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="H14" s="108" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="I14" s="108" t="n">
         <v>8</v>
@@ -11759,25 +11744,25 @@
         <v>53</v>
       </c>
       <c r="M14" s="108" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="N14" s="108" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="O14" s="108" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="P14" s="108" t="n">
         <v>180</v>
       </c>
       <c r="Q14" s="108" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="R14" s="108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="S14" s="108" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="T14" s="108" t="n">
         <v>8000</v>
@@ -11800,16 +11785,16 @@
         <v>49</v>
       </c>
       <c r="E15" s="108" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="F15" s="108" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G15" s="108" t="s">
+        <v>250</v>
+      </c>
+      <c r="H15" s="108" t="s">
         <v>254</v>
-      </c>
-      <c r="H15" s="108" t="s">
-        <v>258</v>
       </c>
       <c r="I15" s="108" t="n">
         <v>16</v>
@@ -11821,31 +11806,31 @@
         <v>512</v>
       </c>
       <c r="L15" s="108" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M15" s="108" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="N15" s="108" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="O15" s="108" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="P15" s="108" t="n">
         <v>180</v>
       </c>
       <c r="Q15" s="108" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="R15" s="108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="S15" s="108" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="T15" s="108" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="U15" s="108" t="n">
         <v>13500</v>
@@ -11865,16 +11850,16 @@
         <v>49</v>
       </c>
       <c r="E16" s="108" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="F16" s="108" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G16" s="108" t="s">
+        <v>250</v>
+      </c>
+      <c r="H16" s="108" t="s">
         <v>254</v>
-      </c>
-      <c r="H16" s="108" t="s">
-        <v>258</v>
       </c>
       <c r="I16" s="108" t="n">
         <v>16</v>
@@ -11886,31 +11871,31 @@
         <v>256</v>
       </c>
       <c r="L16" s="108" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M16" s="108" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="N16" s="108" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="O16" s="108" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="P16" s="108" t="n">
         <v>180</v>
       </c>
       <c r="Q16" s="108" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="R16" s="108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="S16" s="108" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="T16" s="108" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="U16" s="108" t="n">
         <v>13000</v>
@@ -11930,16 +11915,16 @@
         <v>49</v>
       </c>
       <c r="E17" s="108" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F17" s="108" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="G17" s="108" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H17" s="108" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="I17" s="108" t="n">
         <v>8</v>
@@ -11951,31 +11936,31 @@
         <v>128</v>
       </c>
       <c r="L17" s="108" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M17" s="108" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="N17" s="108" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="O17" s="108" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="P17" s="108" t="n">
         <v>180</v>
       </c>
       <c r="Q17" s="108" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="R17" s="108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="S17" s="108" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="T17" s="108" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="U17" s="108" t="n">
         <v>9500</v>
@@ -11995,16 +11980,16 @@
         <v>49</v>
       </c>
       <c r="E18" s="108" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="F18" s="108" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G18" s="108" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H18" s="108" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="I18" s="108" t="n">
         <v>8</v>
@@ -12016,31 +12001,31 @@
         <v>256</v>
       </c>
       <c r="L18" s="108" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="M18" s="108" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="N18" s="108" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="O18" s="108" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="P18" s="108" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="Q18" s="108" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="R18" s="108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="S18" s="108" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="T18" s="108" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="U18" s="111" t="n">
         <v>15000</v>
@@ -12060,16 +12045,16 @@
         <v>49</v>
       </c>
       <c r="E19" s="108" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="F19" s="108" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G19" s="108" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H19" s="108" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="I19" s="108" t="n">
         <v>8</v>
@@ -12081,31 +12066,31 @@
         <v>256</v>
       </c>
       <c r="L19" s="108" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M19" s="108" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="N19" s="108" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="O19" s="108" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="P19" s="108" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="Q19" s="108" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="R19" s="108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="S19" s="108" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="T19" s="108" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="U19" s="111" t="n">
         <v>15000</v>
@@ -12125,16 +12110,16 @@
         <v>49</v>
       </c>
       <c r="E20" s="108" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F20" s="108" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G20" s="108" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H20" s="108" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="I20" s="108" t="n">
         <v>8</v>
@@ -12146,28 +12131,28 @@
         <v>512</v>
       </c>
       <c r="L20" s="108" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M20" s="108" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="N20" s="108" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="O20" s="108" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="P20" s="108" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="Q20" s="108" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="R20" s="108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="S20" s="108" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="T20" s="108"/>
       <c r="U20" s="108" t="n">
@@ -12186,16 +12171,16 @@
         <v>49</v>
       </c>
       <c r="E21" s="112" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F21" s="112" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="G21" s="112" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="H21" s="112" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="I21" s="112" t="n">
         <v>8</v>
@@ -12210,25 +12195,25 @@
         <v>53</v>
       </c>
       <c r="M21" s="112" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="N21" s="112" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="O21" s="112" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="P21" s="112" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="Q21" s="112" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="R21" s="112" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="S21" s="112" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="T21" s="112"/>
       <c r="U21" s="112" t="n">
@@ -12249,16 +12234,16 @@
         <v>49</v>
       </c>
       <c r="E22" s="108" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="F22" s="108" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="G22" s="108" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="H22" s="108" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="I22" s="108" t="n">
         <v>8</v>
@@ -12273,28 +12258,28 @@
         <v>53</v>
       </c>
       <c r="M22" s="108" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="N22" s="108" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="O22" s="108" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="P22" s="108" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="Q22" s="108" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="R22" s="108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="S22" s="108" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="T22" s="108" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="U22" s="111" t="n">
         <v>8500</v>
@@ -12314,16 +12299,16 @@
         <v>49</v>
       </c>
       <c r="E23" s="108" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F23" s="108" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G23" s="108" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H23" s="108" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="I23" s="108" t="n">
         <v>16</v>
@@ -12335,28 +12320,28 @@
         <v>256</v>
       </c>
       <c r="L23" s="108" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M23" s="108" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="N23" s="108" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="O23" s="108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="P23" s="108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="Q23" s="108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="R23" s="108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="S23" s="108" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="T23" s="108"/>
       <c r="U23" s="108" t="n">
@@ -12375,16 +12360,16 @@
         <v>49</v>
       </c>
       <c r="E24" s="114" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F24" s="114" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G24" s="114" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="H24" s="114" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="I24" s="114" t="n">
         <v>16</v>
@@ -12399,25 +12384,25 @@
         <v>53</v>
       </c>
       <c r="M24" s="114" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="N24" s="114" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="O24" s="114" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="P24" s="114" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="Q24" s="114" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="R24" s="114" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="S24" s="114" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="T24" s="114"/>
       <c r="U24" s="114" t="n">
@@ -12438,16 +12423,16 @@
         <v>49</v>
       </c>
       <c r="E25" s="108" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F25" s="108" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="G25" s="108" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="H25" s="108" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="I25" s="108" t="n">
         <v>8</v>
@@ -12462,25 +12447,25 @@
         <v>46</v>
       </c>
       <c r="M25" s="108" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="N25" s="108" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="O25" s="108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="P25" s="108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="Q25" s="108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="R25" s="108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="S25" s="108" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="T25" s="108"/>
       <c r="U25" s="108" t="n">
@@ -12501,16 +12486,16 @@
         <v>49</v>
       </c>
       <c r="E26" s="108" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F26" s="108" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G26" s="108" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H26" s="108" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="I26" s="108" t="n">
         <v>8</v>
@@ -12522,31 +12507,31 @@
         <v>256</v>
       </c>
       <c r="L26" s="108" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M26" s="108" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="N26" s="108" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="O26" s="108" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="P26" s="108" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="Q26" s="108" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="R26" s="108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="S26" s="108" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="T26" s="116" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="U26" s="108" t="n">
         <v>14000</v>
@@ -12566,16 +12551,16 @@
         <v>49</v>
       </c>
       <c r="E27" s="108" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="F27" s="108" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G27" s="108" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H27" s="108" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="I27" s="108" t="n">
         <v>8</v>
@@ -12587,28 +12572,28 @@
         <v>256</v>
       </c>
       <c r="L27" s="108" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M27" s="108" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="N27" s="108" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="O27" s="108" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="P27" s="108" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="Q27" s="108" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="R27" s="108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="S27" s="108" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="T27" s="117"/>
       <c r="U27" s="108" t="n">
@@ -12629,16 +12614,16 @@
         <v>49</v>
       </c>
       <c r="E28" s="108" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F28" s="108" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="G28" s="108" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H28" s="108" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="I28" s="108" t="n">
         <v>8</v>
@@ -12650,31 +12635,31 @@
         <v>256</v>
       </c>
       <c r="L28" s="108" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M28" s="108" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="N28" s="108" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="O28" s="108" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="P28" s="108" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="Q28" s="108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="R28" s="108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="S28" s="108" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="T28" s="108" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="U28" s="111" t="n">
         <v>11000</v>
@@ -12694,16 +12679,16 @@
         <v>49</v>
       </c>
       <c r="E29" s="108" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F29" s="108" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G29" s="108" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H29" s="108" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="I29" s="108" t="n">
         <v>8</v>
@@ -12715,28 +12700,28 @@
         <v>256</v>
       </c>
       <c r="L29" s="108" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M29" s="108" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="N29" s="108" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="O29" s="108" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="P29" s="108" t="n">
         <v>180</v>
       </c>
       <c r="Q29" s="108" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="R29" s="108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="S29" s="108" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="T29" s="117"/>
       <c r="U29" s="108" t="n">
@@ -12757,16 +12742,16 @@
         <v>49</v>
       </c>
       <c r="E30" s="108" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="F30" s="108" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G30" s="108" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H30" s="108" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="I30" s="108" t="n">
         <v>8</v>
@@ -12778,28 +12763,28 @@
         <v>512</v>
       </c>
       <c r="L30" s="108" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M30" s="108" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="N30" s="108" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="O30" s="108" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="P30" s="108" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="Q30" s="108" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="R30" s="108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="S30" s="108" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="T30" s="108"/>
       <c r="U30" s="108" t="n">
@@ -12820,16 +12805,16 @@
         <v>49</v>
       </c>
       <c r="E31" s="108" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="F31" s="108" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G31" s="108" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H31" s="108" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="I31" s="108" t="n">
         <v>8</v>
@@ -12841,28 +12826,28 @@
         <v>256</v>
       </c>
       <c r="L31" s="108" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M31" s="108" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="N31" s="108" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="O31" s="108" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="P31" s="108" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="Q31" s="108" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="R31" s="108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="S31" s="108" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="T31" s="108"/>
       <c r="U31" s="108" t="n">
@@ -12883,16 +12868,16 @@
         <v>49</v>
       </c>
       <c r="E32" s="108" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F32" s="108" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G32" s="108" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H32" s="108" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="I32" s="108" t="n">
         <v>8</v>
@@ -12907,25 +12892,25 @@
         <v>46</v>
       </c>
       <c r="M32" s="108" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="N32" s="108" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="O32" s="108" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="P32" s="108" t="n">
         <v>180</v>
       </c>
       <c r="Q32" s="108" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="R32" s="108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="S32" s="108" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="T32" s="108"/>
       <c r="U32" s="108" t="n">
@@ -12946,16 +12931,16 @@
         <v>49</v>
       </c>
       <c r="E33" s="108" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F33" s="108" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G33" s="108" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H33" s="108" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="I33" s="108" t="n">
         <v>8</v>
@@ -12967,28 +12952,28 @@
         <v>256</v>
       </c>
       <c r="L33" s="108" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M33" s="108" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="N33" s="108" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="O33" s="108" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="P33" s="108" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="Q33" s="108" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="R33" s="108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="S33" s="108" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="T33" s="108"/>
       <c r="U33" s="108" t="n">
@@ -13009,16 +12994,16 @@
         <v>49</v>
       </c>
       <c r="E34" s="108" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F34" s="108" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G34" s="108" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="H34" s="108" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="I34" s="108" t="n">
         <v>8</v>
@@ -13033,25 +13018,25 @@
         <v>53</v>
       </c>
       <c r="M34" s="108" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="N34" s="108" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="O34" s="108" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="P34" s="108" t="n">
         <v>180</v>
       </c>
       <c r="Q34" s="108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="R34" s="108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="S34" s="108" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="T34" s="117"/>
       <c r="U34" s="108" t="n">
@@ -13072,16 +13057,16 @@
         <v>49</v>
       </c>
       <c r="E35" s="108" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F35" s="108" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G35" s="108" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="H35" s="108" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="I35" s="108" t="n">
         <v>4</v>
@@ -13096,25 +13081,25 @@
         <v>53</v>
       </c>
       <c r="M35" s="108" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="N35" s="108" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="O35" s="108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="P35" s="108" t="n">
         <v>180</v>
       </c>
       <c r="Q35" s="108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="R35" s="108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="S35" s="108" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="T35" s="108"/>
       <c r="U35" s="108" t="n">
@@ -13144,7 +13129,7 @@
       <c r="P36" s="120"/>
       <c r="Q36" s="120"/>
       <c r="R36" s="118" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="S36" s="120"/>
       <c r="T36" s="120"/>
@@ -13162,16 +13147,16 @@
         <v>49</v>
       </c>
       <c r="E37" s="112" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F37" s="112" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G37" s="112" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="H37" s="112" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="I37" s="112" t="n">
         <v>4</v>
@@ -13186,25 +13171,25 @@
         <v>53</v>
       </c>
       <c r="M37" s="112" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="N37" s="112" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="O37" s="112" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="P37" s="112" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="Q37" s="112" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="R37" s="112" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="S37" s="112" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="T37" s="112"/>
       <c r="U37" s="112" t="n">
@@ -13222,19 +13207,19 @@
         <v>23</v>
       </c>
       <c r="D38" s="108" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E38" s="108" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F38" s="108" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G38" s="108" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H38" s="108" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="I38" s="108" t="n">
         <v>16</v>
@@ -13246,28 +13231,28 @@
         <v>512</v>
       </c>
       <c r="L38" s="108" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="M38" s="108" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="N38" s="108" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="O38" s="108" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="P38" s="108" t="n">
         <v>180</v>
       </c>
       <c r="Q38" s="108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="R38" s="108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="S38" s="108" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="T38" s="108"/>
       <c r="U38" s="108" t="n">
@@ -13286,16 +13271,16 @@
         <v>49</v>
       </c>
       <c r="E39" s="112" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F39" s="112" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G39" s="112" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H39" s="112" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="I39" s="112" t="n">
         <v>8</v>
@@ -13307,28 +13292,28 @@
         <v>256</v>
       </c>
       <c r="L39" s="112" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M39" s="112" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="N39" s="112" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="O39" s="112" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="P39" s="112" t="n">
         <v>180</v>
       </c>
       <c r="Q39" s="112" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="R39" s="112" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="S39" s="112" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="T39" s="112"/>
       <c r="U39" s="112" t="n">
@@ -13349,16 +13334,16 @@
         <v>49</v>
       </c>
       <c r="E40" s="108" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F40" s="108" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G40" s="108" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H40" s="108" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="I40" s="108" t="n">
         <v>8</v>
@@ -13370,28 +13355,28 @@
         <v>512</v>
       </c>
       <c r="L40" s="108" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M40" s="108" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="N40" s="108" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="O40" s="108" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="P40" s="108" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="Q40" s="108" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="R40" s="108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="S40" s="108" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="T40" s="108"/>
       <c r="U40" s="108" t="n">
@@ -13412,16 +13397,16 @@
         <v>49</v>
       </c>
       <c r="E41" s="108" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="F41" s="108" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G41" s="108" t="s">
+        <v>250</v>
+      </c>
+      <c r="H41" s="108" t="s">
         <v>254</v>
-      </c>
-      <c r="H41" s="108" t="s">
-        <v>258</v>
       </c>
       <c r="I41" s="108" t="n">
         <v>8</v>
@@ -13433,31 +13418,31 @@
         <v>256</v>
       </c>
       <c r="L41" s="108" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M41" s="108" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="N41" s="108" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="O41" s="108" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="P41" s="108" t="n">
         <v>180</v>
       </c>
       <c r="Q41" s="108" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="R41" s="108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="S41" s="108" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="T41" s="116" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="U41" s="111" t="n">
         <v>13500</v>
@@ -13477,16 +13462,16 @@
         <v>49</v>
       </c>
       <c r="E42" s="108" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F42" s="108" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G42" s="108" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H42" s="108" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="I42" s="108" t="n">
         <v>32</v>
@@ -13498,28 +13483,28 @@
         <v>512</v>
       </c>
       <c r="L42" s="108" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M42" s="108" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="N42" s="108" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="O42" s="108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="P42" s="108" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="Q42" s="108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="R42" s="108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="S42" s="108" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="T42" s="117"/>
       <c r="U42" s="111" t="n">
@@ -13540,14 +13525,14 @@
         <v>49</v>
       </c>
       <c r="E43" s="108" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F43" s="108" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G43" s="117"/>
       <c r="H43" s="108" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="I43" s="108" t="n">
         <v>16</v>
@@ -13559,28 +13544,28 @@
         <v>512</v>
       </c>
       <c r="L43" s="108" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M43" s="108" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="N43" s="108" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="O43" s="108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="P43" s="108" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="Q43" s="108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="R43" s="108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="S43" s="108" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="T43" s="108"/>
       <c r="U43" s="111" t="n">
@@ -13601,16 +13586,16 @@
         <v>49</v>
       </c>
       <c r="E44" s="108" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F44" s="108" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G44" s="108" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="H44" s="108" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="I44" s="108" t="n">
         <v>16</v>
@@ -13622,28 +13607,28 @@
         <v>512</v>
       </c>
       <c r="L44" s="108" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M44" s="108" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="N44" s="108" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="O44" s="108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="P44" s="108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="Q44" s="108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="R44" s="108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="S44" s="108" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="T44" s="117"/>
       <c r="U44" s="111" t="n">
@@ -13664,16 +13649,16 @@
         <v>49</v>
       </c>
       <c r="E45" s="108" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F45" s="108" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G45" s="108" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H45" s="108" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="I45" s="108" t="n">
         <v>16</v>
@@ -13685,31 +13670,31 @@
         <v>512</v>
       </c>
       <c r="L45" s="108" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M45" s="108" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="N45" s="108" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="O45" s="108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="P45" s="108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="Q45" s="108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="R45" s="108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="S45" s="108" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="T45" s="116" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="U45" s="111" t="n">
         <v>29500</v>
@@ -13727,16 +13712,16 @@
         <v>49</v>
       </c>
       <c r="E46" s="112" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="F46" s="112" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="G46" s="112" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="H46" s="112" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="I46" s="112" t="n">
         <v>16</v>
@@ -13745,34 +13730,34 @@
         <v>38</v>
       </c>
       <c r="K46" s="112" t="s">
+        <v>270</v>
+      </c>
+      <c r="L46" s="112" t="s">
+        <v>245</v>
+      </c>
+      <c r="M46" s="112" t="s">
         <v>274</v>
       </c>
-      <c r="L46" s="112" t="s">
-        <v>249</v>
-      </c>
-      <c r="M46" s="112" t="s">
-        <v>278</v>
-      </c>
       <c r="N46" s="112" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="O46" s="112" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="P46" s="112" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="Q46" s="112" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="R46" s="112" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="S46" s="112" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="T46" s="122" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="U46" s="123" t="n">
         <v>25000</v>
@@ -13792,16 +13777,16 @@
         <v>49</v>
       </c>
       <c r="E47" s="108" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F47" s="108" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G47" s="108" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H47" s="108" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="I47" s="108" t="n">
         <v>8</v>
@@ -13813,31 +13798,31 @@
         <v>256</v>
       </c>
       <c r="L47" s="108" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M47" s="108" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="N47" s="108" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="O47" s="108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="P47" s="108" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="Q47" s="108" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="R47" s="108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="S47" s="108" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="T47" s="116" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="U47" s="111" t="n">
         <v>15000</v>
@@ -13857,50 +13842,50 @@
         <v>49</v>
       </c>
       <c r="E48" s="108" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F48" s="108" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G48" s="117"/>
       <c r="H48" s="108" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="I48" s="108" t="n">
         <v>8</v>
       </c>
       <c r="J48" s="108" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="K48" s="108" t="n">
         <v>256</v>
       </c>
       <c r="L48" s="108" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M48" s="108" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="N48" s="108" t="s">
+        <v>349</v>
+      </c>
+      <c r="O48" s="108" t="s">
+        <v>210</v>
+      </c>
+      <c r="P48" s="108" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q48" s="108" t="s">
+        <v>210</v>
+      </c>
+      <c r="R48" s="108" t="s">
+        <v>211</v>
+      </c>
+      <c r="S48" s="108" t="s">
+        <v>263</v>
+      </c>
+      <c r="T48" s="116" t="s">
         <v>353</v>
-      </c>
-      <c r="O48" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="P48" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q48" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="R48" s="108" t="s">
-        <v>215</v>
-      </c>
-      <c r="S48" s="108" t="s">
-        <v>267</v>
-      </c>
-      <c r="T48" s="116" t="s">
-        <v>357</v>
       </c>
       <c r="U48" s="111" t="n">
         <v>11000</v>
@@ -13920,16 +13905,16 @@
         <v>49</v>
       </c>
       <c r="E49" s="108" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="F49" s="108" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G49" s="108" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="H49" s="108" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="I49" s="108" t="n">
         <v>16</v>
@@ -13941,28 +13926,28 @@
         <v>512</v>
       </c>
       <c r="L49" s="108" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M49" s="108" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="N49" s="108" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="O49" s="108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="P49" s="108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="Q49" s="108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="R49" s="108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="S49" s="108" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="T49" s="117"/>
       <c r="U49" s="111" t="n">
@@ -13983,16 +13968,16 @@
         <v>49</v>
       </c>
       <c r="E50" s="108" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F50" s="108" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G50" s="108" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="H50" s="108" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="I50" s="108" t="n">
         <v>16</v>
@@ -14004,28 +13989,28 @@
         <v>512</v>
       </c>
       <c r="L50" s="108" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M50" s="108" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="N50" s="108" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="O50" s="108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="P50" s="108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="Q50" s="108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="R50" s="108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="S50" s="108" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="T50" s="117"/>
       <c r="U50" s="111" t="n">
@@ -14046,16 +14031,16 @@
         <v>49</v>
       </c>
       <c r="E51" s="108" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="F51" s="108" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="G51" s="108" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="H51" s="108" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="I51" s="108" t="n">
         <v>16</v>
@@ -14067,28 +14052,28 @@
         <v>512</v>
       </c>
       <c r="L51" s="108" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M51" s="108" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="N51" s="108" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="O51" s="108" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="P51" s="108" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="Q51" s="108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="R51" s="108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="S51" s="108" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="T51" s="108"/>
       <c r="U51" s="108" t="n">
@@ -14109,16 +14094,16 @@
         <v>49</v>
       </c>
       <c r="E52" s="113" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F52" s="113" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="G52" s="113" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="H52" s="113" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="I52" s="113" t="n">
         <v>16</v>
@@ -14130,28 +14115,28 @@
         <v>512</v>
       </c>
       <c r="L52" s="113" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M52" s="113" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="N52" s="113" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="O52" s="113" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="P52" s="113" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="Q52" s="113" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="R52" s="113" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="S52" s="113" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="T52" s="124"/>
       <c r="U52" s="119" t="n">
@@ -14172,14 +14157,14 @@
         <v>49</v>
       </c>
       <c r="E53" s="108" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F53" s="108" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G53" s="117"/>
       <c r="H53" s="108" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="I53" s="108" t="n">
         <v>8</v>
@@ -14191,28 +14176,28 @@
         <v>256</v>
       </c>
       <c r="L53" s="108" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M53" s="108" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="N53" s="108" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="O53" s="108" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="P53" s="108" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="Q53" s="108" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="R53" s="108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="S53" s="108" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="T53" s="117"/>
       <c r="U53" s="111" t="n">
@@ -14231,14 +14216,14 @@
         <v>49</v>
       </c>
       <c r="E54" s="112" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F54" s="112" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G54" s="125"/>
       <c r="H54" s="112" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="I54" s="112" t="n">
         <v>8</v>
@@ -14250,31 +14235,31 @@
         <v>512</v>
       </c>
       <c r="L54" s="112" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M54" s="112" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="N54" s="112" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="O54" s="112" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="P54" s="112" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="Q54" s="112" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="R54" s="112" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="S54" s="112" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="T54" s="122" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="U54" s="123" t="n">
         <v>13000</v>
@@ -14292,14 +14277,14 @@
         <v>49</v>
       </c>
       <c r="E55" s="112" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F55" s="112" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G55" s="112"/>
       <c r="H55" s="112" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="I55" s="112" t="n">
         <v>8</v>
@@ -14311,28 +14296,28 @@
         <v>256</v>
       </c>
       <c r="L55" s="112" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M55" s="112" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="N55" s="112" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="O55" s="112" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="P55" s="112" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="Q55" s="112" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="R55" s="112" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="S55" s="112" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="T55" s="112"/>
       <c r="U55" s="112" t="n">
@@ -14353,16 +14338,16 @@
         <v>49</v>
       </c>
       <c r="E56" s="108" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="F56" s="108" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G56" s="108" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H56" s="108" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="I56" s="108" t="n">
         <v>16</v>
@@ -14374,31 +14359,31 @@
         <v>512</v>
       </c>
       <c r="L56" s="108" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M56" s="108" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="N56" s="108" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="O56" s="108" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="P56" s="108" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="Q56" s="108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="R56" s="108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="S56" s="108" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="T56" s="116" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="U56" s="108" t="n">
         <v>16500</v>
@@ -14416,16 +14401,16 @@
         <v>49</v>
       </c>
       <c r="E57" s="112" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F57" s="112" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G57" s="112" t="s">
+        <v>250</v>
+      </c>
+      <c r="H57" s="112" t="s">
         <v>254</v>
-      </c>
-      <c r="H57" s="112" t="s">
-        <v>258</v>
       </c>
       <c r="I57" s="112" t="n">
         <v>8</v>
@@ -14437,31 +14422,31 @@
         <v>256</v>
       </c>
       <c r="L57" s="112" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M57" s="112" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="N57" s="112" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="O57" s="112" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="P57" s="112" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="Q57" s="112" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="R57" s="112" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="S57" s="112" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="T57" s="112" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="U57" s="112" t="n">
         <v>15000</v>
@@ -14481,16 +14466,16 @@
         <v>49</v>
       </c>
       <c r="E58" s="108" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F58" s="108" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G58" s="108" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="H58" s="108" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="I58" s="108" t="n">
         <v>8</v>
@@ -14502,28 +14487,28 @@
         <v>512</v>
       </c>
       <c r="L58" s="108" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M58" s="108" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="N58" s="108" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="O58" s="108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="P58" s="108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="Q58" s="108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="R58" s="108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="S58" s="108" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="T58" s="117"/>
       <c r="U58" s="111" t="n">
@@ -14542,16 +14527,16 @@
         <v>49</v>
       </c>
       <c r="E59" s="112" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F59" s="112" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G59" s="112" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="H59" s="112" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="I59" s="112" t="n">
         <v>16</v>
@@ -14566,25 +14551,25 @@
         <v>29</v>
       </c>
       <c r="M59" s="112" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="N59" s="112" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="O59" s="112" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="P59" s="112" t="n">
         <v>180</v>
       </c>
       <c r="Q59" s="112" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="R59" s="112" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="S59" s="112" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="T59" s="125"/>
       <c r="U59" s="123" t="n">
@@ -14605,16 +14590,16 @@
         <v>49</v>
       </c>
       <c r="E60" s="108" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F60" s="108" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="G60" s="108" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="H60" s="108" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="I60" s="108" t="n">
         <v>32</v>
@@ -14632,25 +14617,25 @@
         <v>15.6</v>
       </c>
       <c r="N60" s="108" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="O60" s="108" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="P60" s="108" t="n">
         <v>180</v>
       </c>
       <c r="Q60" s="108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="R60" s="108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="S60" s="108" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="T60" s="116" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="U60" s="108" t="n">
         <v>21000</v>
@@ -14670,16 +14655,16 @@
         <v>49</v>
       </c>
       <c r="E61" s="108" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="F61" s="108" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="G61" s="108" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="H61" s="108" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="I61" s="108" t="n">
         <v>16</v>
@@ -14688,31 +14673,31 @@
         <v>38</v>
       </c>
       <c r="K61" s="108" t="s">
-        <v>212</v>
+        <v>381</v>
       </c>
       <c r="L61" s="108" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="M61" s="108" t="n">
         <v>15.6</v>
       </c>
       <c r="N61" s="108" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="O61" s="108" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="P61" s="108" t="n">
         <v>180</v>
       </c>
       <c r="Q61" s="108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="R61" s="108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="S61" s="108" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="T61" s="108"/>
       <c r="U61" s="108" t="n">
@@ -14733,16 +14718,16 @@
         <v>49</v>
       </c>
       <c r="E62" s="108" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F62" s="108" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="G62" s="108" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H62" s="108" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="I62" s="108" t="n">
         <v>8</v>
@@ -14754,28 +14739,28 @@
         <v>256</v>
       </c>
       <c r="L62" s="108" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M62" s="108" t="n">
         <v>14</v>
       </c>
       <c r="N62" s="108" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="O62" s="108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="P62" s="108" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="Q62" s="108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="R62" s="108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="S62" s="108" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="T62" s="108"/>
       <c r="U62" s="108" t="n">
@@ -14796,16 +14781,16 @@
         <v>49</v>
       </c>
       <c r="E63" s="108" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="F63" s="108" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="G63" s="108" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="H63" s="108" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="I63" s="108" t="n">
         <v>8</v>
@@ -14823,22 +14808,22 @@
         <v>15.6</v>
       </c>
       <c r="N63" s="108" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="O63" s="108" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="P63" s="108" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="Q63" s="108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="R63" s="108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="S63" s="108" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="T63" s="108"/>
       <c r="U63" s="108" t="n">
@@ -14857,16 +14842,16 @@
         <v>49</v>
       </c>
       <c r="E64" s="112" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F64" s="112" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G64" s="112" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H64" s="112" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="I64" s="112" t="n">
         <v>16</v>
@@ -14881,25 +14866,25 @@
         <v>53</v>
       </c>
       <c r="M64" s="112" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="N64" s="112" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="O64" s="112" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="P64" s="112" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="Q64" s="112" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="R64" s="112" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="S64" s="112" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="T64" s="123"/>
       <c r="U64" s="112" t="n">
@@ -14920,16 +14905,16 @@
         <v>49</v>
       </c>
       <c r="E65" s="108" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F65" s="108" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G65" s="108" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="H65" s="108" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="I65" s="108" t="n">
         <v>16</v>
@@ -14941,28 +14926,28 @@
         <v>512</v>
       </c>
       <c r="L65" s="108" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M65" s="108" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="N65" s="108" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="O65" s="108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="P65" s="108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="Q65" s="108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="R65" s="108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="S65" s="108" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="T65" s="117"/>
       <c r="U65" s="111" t="n">
@@ -14980,19 +14965,19 @@
         <v>23</v>
       </c>
       <c r="D66" s="108" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="E66" s="108" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F66" s="108" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="G66" s="108" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="H66" s="108" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="I66" s="108" t="n">
         <v>8</v>
@@ -15004,28 +14989,28 @@
         <v>512</v>
       </c>
       <c r="L66" s="108" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="M66" s="108" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="N66" s="108" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="O66" s="108" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="P66" s="108" t="n">
         <v>180</v>
       </c>
       <c r="Q66" s="108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="R66" s="108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="S66" s="108" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="T66" s="108"/>
       <c r="U66" s="108" t="n">
@@ -15046,16 +15031,16 @@
         <v>49</v>
       </c>
       <c r="E67" s="108" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="F67" s="108" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G67" s="108" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H67" s="108" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="I67" s="108" t="n">
         <v>4</v>
@@ -15070,25 +15055,25 @@
         <v>46</v>
       </c>
       <c r="M67" s="108" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="N67" s="108" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="O67" s="108" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="P67" s="108" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="Q67" s="108" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="R67" s="108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="S67" s="108" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="T67" s="108"/>
       <c r="U67" s="108" t="n">
@@ -15109,17 +15094,17 @@
         <v>49</v>
       </c>
       <c r="E68" s="108" t="s">
+        <v>205</v>
+      </c>
+      <c r="F68" s="108" t="s">
+        <v>206</v>
+      </c>
+      <c r="G68" s="108" t="s">
+        <v>207</v>
+      </c>
+      <c r="H68" s="108" t="s">
         <v>208</v>
       </c>
-      <c r="F68" s="108" t="s">
-        <v>209</v>
-      </c>
-      <c r="G68" s="108" t="s">
-        <v>210</v>
-      </c>
-      <c r="H68" s="108" t="s">
-        <v>211</v>
-      </c>
       <c r="I68" s="108" t="n">
         <v>32</v>
       </c>
@@ -15127,7 +15112,7 @@
         <v>38</v>
       </c>
       <c r="K68" s="108" t="s">
-        <v>212</v>
+        <v>381</v>
       </c>
       <c r="L68" s="108" t="s">
         <v>46</v>
@@ -15136,22 +15121,22 @@
         <v>15.6</v>
       </c>
       <c r="N68" s="108" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="O68" s="108" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="P68" s="108" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="Q68" s="108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="R68" s="108" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="S68" s="108" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="T68" s="108"/>
       <c r="U68" s="108" t="n">
